--- a/Data/Specific Power Plots for Reactor Scale_bk_12.19.22.xlsx
+++ b/Data/Specific Power Plots for Reactor Scale_bk_12.19.22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atpha\Documents\Postdocs\Projects\TES\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F3583C-7284-4861-ABC0-E14AD9E94A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF8E2A7-2DAC-44CC-B873-3D4647E849A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{CCAFE77B-233B-4F54-892D-EC466BD3AAF1}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" firstSheet="1" activeTab="2" xr2:uid="{CCAFE77B-233B-4F54-892D-EC466BD3AAF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Constant_power" sheetId="2" r:id="rId1"/>
@@ -6881,16 +6881,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>20955</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>183833</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>20955</xdr:rowOff>
+      <xdr:colOff>526733</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7304,12 +7304,12 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -7335,7 +7335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>1</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>0.98989898989898994</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>0.97979797979798</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>0.96969696969696995</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>0.95959595959596</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>0.94949494949494995</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>0.939393939393939</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>0.92929292929292895</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>0.919191919191919</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>0.90909090909090895</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>0.89898989898989901</v>
       </c>
@@ -7566,7 +7566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>0.88888888888888895</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>0.87878787878787901</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>0.86868686868686895</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>0.85858585858585901</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>0.84848484848484895</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18">
         <v>0.83838383838383801</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19">
         <v>0.82828282828282795</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20">
         <v>0.81818181818181801</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B21">
         <v>0.80808080808080796</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B22">
         <v>0.79797979797979801</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B23">
         <v>0.78787878787878796</v>
       </c>
@@ -7797,7 +7797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B24">
         <v>0.77777777777777801</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B25">
         <v>0.76767676767676796</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B26">
         <v>0.75757575757575801</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B27">
         <v>0.74747474747474696</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B28">
         <v>0.73737373737373701</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B29">
         <v>0.72727272727272696</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B30">
         <v>0.71717171717171702</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B31">
         <v>0.70707070707070696</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B32">
         <v>0.69696969696969702</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B33">
         <v>0.68686868686868696</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B34">
         <v>0.67676767676767702</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B35">
         <v>0.66666666666666696</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B36">
         <v>0.65656565656565702</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B37">
         <v>0.64646464646464596</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B38">
         <v>0.63636363636363602</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B39">
         <v>0.62626262626262597</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B40">
         <v>0.61616161616161602</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B41">
         <v>0.60606060606060597</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B42">
         <v>0.59595959595959602</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B43">
         <v>0.58585858585858597</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B44">
         <v>0.57575757575757602</v>
       </c>
@@ -8238,7 +8238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B45">
         <v>0.56565656565656597</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B46">
         <v>0.55555555555555602</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B47">
         <v>0.54545454545454497</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B48">
         <v>0.53535353535353503</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B49">
         <v>0.52525252525252497</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B50">
         <v>0.51515151515151503</v>
       </c>
@@ -8364,7 +8364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B51">
         <v>0.50505050505050497</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B52">
         <v>0.49494949494949497</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B53">
         <v>0.48484848484848497</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B54">
         <v>0.47474747474747497</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B55">
         <v>0.46464646464646497</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B56">
         <v>0.45454545454545497</v>
       </c>
@@ -8490,7 +8490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B57">
         <v>0.44444444444444398</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B58">
         <v>0.43434343434343398</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B59">
         <v>0.42424242424242398</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B60">
         <v>0.41414141414141398</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B61">
         <v>0.40404040404040398</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B62">
         <v>0.39393939393939398</v>
       </c>
@@ -8616,7 +8616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B63">
         <v>0.38383838383838398</v>
       </c>
@@ -8637,7 +8637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B64">
         <v>0.37373737373737398</v>
       </c>
@@ -8658,7 +8658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B65">
         <v>0.36363636363636398</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B66">
         <v>0.35353535353535398</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B67">
         <v>0.34343434343434298</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B68">
         <v>0.33333333333333298</v>
       </c>
@@ -8742,7 +8742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B69">
         <v>0.32323232323232298</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B70">
         <v>0.31313131313131298</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B71">
         <v>0.30303030303030298</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B72">
         <v>0.29292929292929298</v>
       </c>
@@ -8826,7 +8826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B73">
         <v>0.28282828282828298</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B74">
         <v>0.27272727272727298</v>
       </c>
@@ -8868,7 +8868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B75">
         <v>0.26262626262626299</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B76">
         <v>0.25252525252525299</v>
       </c>
@@ -8910,7 +8910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B77">
         <v>0.24242424242424199</v>
       </c>
@@ -8931,7 +8931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B78">
         <v>0.23232323232323199</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B79">
         <v>0.22222222222222199</v>
       </c>
@@ -8973,7 +8973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B80">
         <v>0.21212121212121199</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B81">
         <v>0.20202020202020199</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B82">
         <v>0.19191919191919199</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B83">
         <v>0.18181818181818199</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B84">
         <v>0.17171717171717199</v>
       </c>
@@ -9078,7 +9078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B85">
         <v>0.16161616161616199</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B86">
         <v>0.15151515151515199</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B87">
         <v>0.14141414141414099</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B88">
         <v>0.13131313131313099</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B89">
         <v>0.12121212121212099</v>
       </c>
@@ -9183,7 +9183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B90">
         <v>0.11111111111111099</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B91">
         <v>0.10101010101010099</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B92">
         <v>9.0909090909090898E-2</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B93">
         <v>8.0808080808080801E-2</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B94">
         <v>7.0707070707070704E-2</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B95">
         <v>6.0606060606060601E-2</v>
       </c>
@@ -9309,7 +9309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B96">
         <v>5.0505050505050497E-2</v>
       </c>
@@ -9330,7 +9330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B97">
         <v>4.0404040404040401E-2</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B98">
         <v>3.03030303030303E-2</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B99">
         <v>2.02020202020202E-2</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B100">
         <v>1.01010101010101E-2</v>
       </c>
@@ -9414,7 +9414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B101">
         <v>0</v>
       </c>
@@ -9450,9 +9450,9 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9460,7 +9460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0.99985000000000002</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>8.7837837837813151</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0.99972000000000005</v>
       </c>
@@ -9484,7 +9484,7 @@
         <v>8.7837837837813151</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0.99958999999999998</v>
       </c>
@@ -9492,7 +9492,7 @@
         <v>8.7837837837888166</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0.99946000000000002</v>
       </c>
@@ -9500,7 +9500,7 @@
         <v>8.7837837837813151</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0.99933000000000005</v>
       </c>
@@ -9508,7 +9508,7 @@
         <v>8.7837837837813151</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0.99919000000000002</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>9.4594594594614172</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0.99905999999999995</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>8.7837837837888166</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0.99892999999999998</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>8.7837837837813151</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>0.99878999999999996</v>
       </c>
@@ -9540,7 +9540,7 @@
         <v>9.4594594594614172</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>0.99865999999999999</v>
       </c>
@@ -9548,7 +9548,7 @@
         <v>8.7837837837813151</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>0.99851999999999996</v>
       </c>
@@ -9556,7 +9556,7 @@
         <v>9.4594594594614172</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>0.99839</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>8.7837837837813151</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>0.99824999999999997</v>
       </c>
@@ -9572,7 +9572,7 @@
         <v>9.4594594594614172</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>0.99812000000000001</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>8.7837837837813151</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>0.99797999999999998</v>
       </c>
@@ -9588,7 +9588,7 @@
         <v>9.4594594594614172</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>0.99783999999999995</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>9.4594594594614172</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>0.99770000000000003</v>
       </c>
@@ -9604,7 +9604,7 @@
         <v>9.4594594594539174</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>0.99756</v>
       </c>
@@ -9612,7 +9612,7 @@
         <v>9.4594594594614172</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>0.99743000000000004</v>
       </c>
@@ -9620,7 +9620,7 @@
         <v>8.7837837837813151</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>0.99731000000000003</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>10.135135135135894</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>0.99589000000000005</v>
       </c>
@@ -9636,7 +9636,7 @@
         <v>9.5945945945944384</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>0.99443999999999999</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>9.7972972972977175</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>0.99297000000000002</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>9.9324324324322379</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>0.99148000000000003</v>
       </c>
@@ -9660,7 +9660,7 @@
         <v>10.067567567567508</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>0.99</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>10.000000000000249</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>0.98851999999999995</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>10.000000000000249</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>0.98706000000000005</v>
       </c>
@@ -9684,7 +9684,7 @@
         <v>9.864864864864229</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>0.98560999999999999</v>
       </c>
@@ -9692,7 +9692,7 @@
         <v>9.7972972972977175</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>0.98419000000000001</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>9.5945945945944384</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>0.98277999999999999</v>
       </c>
@@ -9708,7 +9708,7 @@
         <v>9.5270270270271791</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>0.98138999999999998</v>
       </c>
@@ -9716,7 +9716,7 @@
         <v>9.3918918918919072</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>0.98001000000000005</v>
       </c>
@@ -9724,7 +9724,7 @@
         <v>9.3243243243238982</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>0.97863</v>
       </c>
@@ -9732,7 +9732,7 @@
         <v>9.3243243243246461</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>0.97726999999999997</v>
       </c>
@@ -9740,7 +9740,7 @@
         <v>9.1891891891893778</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>0.97589999999999999</v>
       </c>
@@ -9748,7 +9748,7 @@
         <v>9.2567567567566371</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>0.97453999999999996</v>
       </c>
@@ -9756,7 +9756,7 @@
         <v>9.1891891891893778</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>0.97316999999999998</v>
       </c>
@@ -9764,7 +9764,7 @@
         <v>9.2567567567566371</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>0.97180999999999995</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>9.1891891891893778</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>0.97180999999999995</v>
       </c>
@@ -9780,7 +9780,7 @@
         <v>9.1891891891893778</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>0.94452000000000003</v>
       </c>
@@ -9788,7 +9788,7 @@
         <v>9.2195945945945699</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>0.9173</v>
       </c>
@@ -9796,7 +9796,7 @@
         <v>9.1959459459459527</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>0.89015999999999995</v>
       </c>
@@ -9804,7 +9804,7 @@
         <v>9.1689189189189353</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>0.86312</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>9.1351351351351191</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>0.83620000000000005</v>
       </c>
@@ -9820,7 +9820,7 @@
         <v>9.0945945945945752</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>0.80942999999999998</v>
       </c>
@@ -9828,7 +9828,7 @@
         <v>9.0439189189189424</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>0.78283000000000003</v>
       </c>
@@ -9836,7 +9836,7 @@
         <v>8.9864864864864717</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>0.75643000000000005</v>
       </c>
@@ -9844,7 +9844,7 @@
         <v>8.9189189189189122</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>0.73026999999999997</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>8.8378378378378617</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>0.70438000000000001</v>
       </c>
@@ -9860,7 +9860,7 @@
         <v>8.7466216216216104</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>0.67881999999999998</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>8.635135135135144</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>0.65363000000000004</v>
       </c>
@@ -9876,7 +9876,7 @@
         <v>8.510135135135112</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>0.62883</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>8.3783783783783932</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>0.60448999999999997</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>8.2229729729729808</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>0.58062999999999998</v>
       </c>
@@ -9900,7 +9900,7 @@
         <v>8.060810810810807</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>0.55728999999999995</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>7.885135135135144</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>0.53451000000000004</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>7.6959459459459163</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>0.51229999999999998</v>
       </c>
@@ -9924,7 +9924,7 @@
         <v>7.5033783783784003</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>0.49070000000000003</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>7.2972972972972814</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>0.46970000000000001</v>
       </c>
@@ -9940,7 +9940,7 @@
         <v>7.094594594594601</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>0.44934000000000002</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>6.8783783783783736</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>0.42959999999999998</v>
       </c>
@@ -9956,7 +9956,7 @@
         <v>6.6689189189189308</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>0.41049999999999998</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>6.4527027027027053</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>0.39202999999999999</v>
       </c>
@@ -9972,7 +9972,7 @@
         <v>6.2398648648648605</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>0.37418000000000001</v>
       </c>
@@ -9980,7 +9980,7 @@
         <v>6.0304054054053973</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>0.35694999999999999</v>
       </c>
@@ -9988,7 +9988,7 @@
         <v>5.8209459459459536</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>0.34033000000000002</v>
       </c>
@@ -9996,7 +9996,7 @@
         <v>5.6148648648648543</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>0.32429999999999998</v>
       </c>
@@ -10004,7 +10004,7 @@
         <v>5.4155405405405563</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>0.30886000000000002</v>
       </c>
@@ -10012,7 +10012,7 @@
         <v>5.2162162162162007</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>0.29398999999999997</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>5.0236486486486651</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>0.27967999999999998</v>
       </c>
@@ -10028,7 +10028,7 @@
         <v>4.8344594594594552</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>0.26591999999999999</v>
       </c>
@@ -10036,7 +10036,7 @@
         <v>4.6486486486486465</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>0.25268000000000002</v>
       </c>
@@ -10044,7 +10044,7 @@
         <v>4.4729729729729639</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>0.23995</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>4.3006756756756825</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>0.22772999999999999</v>
       </c>
@@ -10060,7 +10060,7 @@
         <v>4.1283783783783816</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>0.21598999999999999</v>
       </c>
@@ -10068,7 +10068,7 @@
         <v>3.9662162162162167</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>0.20471</v>
       </c>
@@ -10076,7 +10076,7 @@
         <v>3.8108108108108056</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>0.19389999999999999</v>
       </c>
@@ -10084,7 +10084,7 @@
         <v>3.6520270270270316</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>0.18351999999999999</v>
       </c>
@@ -10092,7 +10092,7 @@
         <v>3.506756756756757</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>0.17357</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>3.361486486486482</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>0.16403999999999999</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>3.2195945945945978</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>0.15490999999999999</v>
       </c>
@@ -10116,7 +10116,7 @@
         <v>3.0844594594594592</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>0.14616000000000001</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>2.9560810810810745</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>0.13780000000000001</v>
       </c>
@@ -10132,7 +10132,7 @@
         <v>2.8243243243243268</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>0.12978999999999999</v>
       </c>
@@ -10140,7 +10140,7 @@
         <v>2.7060810810810865</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>0.12214</v>
       </c>
@@ -10148,7 +10148,7 @@
         <v>2.5844594594594557</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>0.11482000000000001</v>
       </c>
@@ -10156,7 +10156,7 @@
         <v>2.4729729729729706</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>0.10784000000000001</v>
       </c>
@@ -10164,7 +10164,7 @@
         <v>2.3581081081081083</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>0.10118000000000001</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>2.2499999999999996</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>9.4818E-2</v>
       </c>
@@ -10180,7 +10180,7 @@
         <v>2.1493243243243261</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>8.8759000000000005E-2</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>2.0469594594594573</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>8.2987000000000005E-2</v>
       </c>
@@ -10196,7 +10196,7 @@
         <v>1.9499999999999997</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>7.7493999999999993E-2</v>
       </c>
@@ -10204,7 +10204,7 @@
         <v>1.855743243243247</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>7.2270000000000001E-2</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v>1.7648648648648624</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>6.7305000000000004E-2</v>
       </c>
@@ -10220,7 +10220,7 @@
         <v>1.6773648648648638</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>6.2591999999999995E-2</v>
       </c>
@@ -10228,7 +10228,7 @@
         <v>1.5922297297297328</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>5.8120999999999999E-2</v>
       </c>
@@ -10236,7 +10236,7 @@
         <v>1.5104729729729713</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>5.3884000000000001E-2</v>
       </c>
@@ -10244,7 +10244,7 @@
         <v>1.4314189189189181</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>4.9874000000000002E-2</v>
       </c>
@@ -10252,7 +10252,7 @@
         <v>1.3547297297297296</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>4.6080999999999997E-2</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>1.2814189189189205</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>4.2499000000000002E-2</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v>1.2101351351351335</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>3.9119000000000001E-2</v>
       </c>
@@ -10276,7 +10276,7 @@
         <v>1.1418918918918923</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>3.5935000000000002E-2</v>
       </c>
@@ -10284,7 +10284,7 @@
         <v>1.0756756756756756</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>3.2939999999999997E-2</v>
       </c>
@@ -10292,7 +10292,7 @@
         <v>1.0118243243243259</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>3.0124999999999999E-2</v>
       </c>
@@ -10300,7 +10300,7 @@
         <v>0.95101351351351282</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>2.7484999999999999E-2</v>
       </c>
@@ -10308,7 +10308,7 @@
         <v>0.89189189189189189</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>2.5012E-2</v>
       </c>
@@ -10316,7 +10316,7 @@
         <v>0.83547297297297285</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>2.2700999999999999E-2</v>
       </c>
@@ -10324,7 +10324,7 @@
         <v>0.7807432432432434</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>2.0545000000000001E-2</v>
       </c>
@@ -10332,7 +10332,7 @@
         <v>0.72837837837837771</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>1.8537000000000001E-2</v>
       </c>
@@ -10340,7 +10340,7 @@
         <v>0.67837837837837811</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>1.6670999999999998E-2</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>0.63040540540540646</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>1.4940999999999999E-2</v>
       </c>
@@ -10356,7 +10356,7 @@
         <v>0.5844594594594591</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>1.3342E-2</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>0.54020270270270254</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>1.1867000000000001E-2</v>
       </c>
@@ -10372,7 +10372,7 @@
         <v>0.49831081081081036</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>1.0511E-2</v>
       </c>
@@ -10380,7 +10380,7 @@
         <v>0.45810810810810854</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>9.2680000000000002E-3</v>
       </c>
@@ -10388,7 +10388,7 @@
         <v>0.41993243243243217</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>8.1326000000000002E-3</v>
       </c>
@@ -10396,7 +10396,7 @@
         <v>0.38358108108108108</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>7.0993000000000002E-3</v>
       </c>
@@ -10404,7 +10404,7 @@
         <v>0.34908783783783781</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>6.1627000000000001E-3</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>0.31641891891891893</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>5.3175000000000002E-3</v>
       </c>
@@ -10420,7 +10420,7 @@
         <v>0.28554054054054051</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>4.5585000000000001E-3</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>0.25641891891891899</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>3.8806000000000001E-3</v>
       </c>
@@ -10436,7 +10436,7 @@
         <v>0.22902027027027022</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>3.2785000000000002E-3</v>
       </c>
@@ -10444,7 +10444,7 @@
         <v>0.20341216216216212</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>2.7472999999999998E-3</v>
       </c>
@@ -10452,7 +10452,7 @@
         <v>0.17945945945945957</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>2.2818999999999999E-3</v>
       </c>
@@ -10460,7 +10460,7 @@
         <v>0.15722972972972971</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>1.8775E-3</v>
       </c>
@@ -10468,7 +10468,7 @@
         <v>0.13662162162162156</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>1.5291E-3</v>
       </c>
@@ -10476,7 +10476,7 @@
         <v>0.11770270270270271</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>1.2319E-3</v>
       </c>
@@ -10495,12 +10495,12 @@
   <dimension ref="B1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="R39" sqref="R39"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C1" t="s">
         <v>11</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
         <v>5</v>
       </c>
@@ -10519,7 +10519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>7</v>
       </c>
@@ -10531,7 +10531,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F4">
         <f>F3/(1000*3600)</f>
         <v>0.35555555555555557</v>
@@ -10540,7 +10540,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -10554,7 +10554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6">
         <f>0</f>
         <v>0</v>
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7">
         <f t="shared" ref="B7:B15" si="0">B6+0.1</f>
         <v>0.1</v>
@@ -10587,8 +10587,12 @@
         <f>-D7*$F$3</f>
         <v>811.25358057607389</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f>E7/1000</f>
+        <v>0.81125358057607388</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8">
         <f t="shared" si="0"/>
         <v>0.2</v>
@@ -10606,7 +10610,7 @@
         <v>808.16858508230882</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
@@ -10624,7 +10628,7 @@
         <v>805.09532105878611</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10">
         <f t="shared" si="0"/>
         <v>0.4</v>
@@ -10642,7 +10646,7 @@
         <v>802.03374389356009</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -10660,7 +10664,7 @@
         <v>798.98380914445511</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12">
         <f t="shared" si="0"/>
         <v>0.6</v>
@@ -10678,7 +10682,7 @@
         <v>795.94547253824078</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13">
         <f t="shared" si="0"/>
         <v>0.7</v>
@@ -10696,7 +10700,7 @@
         <v>792.91868997008453</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14">
         <f t="shared" si="0"/>
         <v>0.79999999999999993</v>
@@ -10714,7 +10718,7 @@
         <v>789.9034175028421</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15">
         <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
@@ -10732,7 +10736,7 @@
         <v>786.89961136646525</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16">
         <f>B15+0.1</f>
         <v>0.99999999999999989</v>
@@ -10750,7 +10754,7 @@
         <v>783.90722795738577</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17">
         <f t="shared" ref="B17:B31" si="4">B16+1</f>
         <v>2</v>
@@ -10768,7 +10772,7 @@
         <v>767.69733455692563</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -10786,7 +10790,7 @@
         <v>738.99825514500378</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -10804,7 +10808,7 @@
         <v>711.37204276285604</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -10822,7 +10826,7 @@
         <v>684.77859007299458</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -10840,7 +10844,7 @@
         <v>659.17928908358908</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -10858,7 +10862,7 @@
         <v>634.53697509793017</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -10876,7 +10880,7 @@
         <v>610.81587275927757</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -10894,7 +10898,7 @@
         <v>587.98154411269127</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -10912,7 +10916,7 @@
         <v>566.00083860851908</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B26">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -10930,7 +10934,7 @@
         <v>544.84184497489468</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B27">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -10948,7 +10952,7 @@
         <v>524.47384488942112</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B28">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -10966,7 +10970,7 @@
         <v>504.86726838275331</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B29">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -10984,7 +10988,7 @@
         <v>485.99365090932406</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B30">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -11002,7 +11006,7 @@
         <v>467.82559202295931</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B31">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -11020,7 +11024,7 @@
         <v>450.33671559727156</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B32">
         <f>B31+5</f>
         <v>21</v>
@@ -11038,7 +11042,7 @@
         <v>402.27933622876009</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B33">
         <f t="shared" ref="B33:B37" si="5">B32+5</f>
         <v>26</v>
@@ -11056,7 +11060,7 @@
         <v>332.5022787819421</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B34">
         <f t="shared" si="5"/>
         <v>31</v>
@@ -11074,7 +11078,7 @@
         <v>274.82834796245851</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B35">
         <f t="shared" si="5"/>
         <v>36</v>
@@ -11092,7 +11096,7 @@
         <v>227.1582051120549</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B36">
         <f t="shared" si="5"/>
         <v>41</v>
@@ -11110,7 +11114,7 @@
         <v>187.75665076871562</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B37">
         <f t="shared" si="5"/>
         <v>46</v>
@@ -11128,7 +11132,7 @@
         <v>155.18946317829798</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B38">
         <f>B37+5</f>
         <v>51</v>
@@ -11146,7 +11150,7 @@
         <v>128.27119243427171</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B39">
         <f>B38+10</f>
         <v>61</v>
@@ -11164,7 +11168,7 @@
         <v>96.827026245834261</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B40">
         <f t="shared" ref="B40:B50" si="6">B39+10</f>
         <v>71</v>
@@ -11182,7 +11186,7 @@
         <v>66.15008344879972</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B41">
         <f t="shared" si="6"/>
         <v>81</v>
@@ -11200,7 +11204,7 @@
         <v>45.192274408731194</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B42">
         <f t="shared" si="6"/>
         <v>91</v>
@@ -11218,7 +11222,7 @@
         <v>30.874362657680418</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B43">
         <f t="shared" si="6"/>
         <v>101</v>
@@ -11236,7 +11240,7 @@
         <v>21.092681923833521</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B44">
         <f t="shared" si="6"/>
         <v>111</v>
@@ -11254,7 +11258,7 @@
         <v>14.410053923148395</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B45">
         <f t="shared" si="6"/>
         <v>121</v>
@@ -11272,7 +11276,7 @@
         <v>9.8446302285254852</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B46">
         <f t="shared" si="6"/>
         <v>131</v>
@@ -11290,7 +11294,7 @@
         <v>6.7256337036123099</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B47">
         <f>B46+10</f>
         <v>141</v>
@@ -11308,7 +11312,7 @@
         <v>4.5948042399903279</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B48">
         <f t="shared" si="6"/>
         <v>151</v>
@@ -11326,7 +11330,7 @@
         <v>3.139068663893152</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B49">
         <f>B48+10</f>
         <v>161</v>
@@ -11344,7 +11348,7 @@
         <v>2.1445423051704871</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B50">
         <f t="shared" si="6"/>
         <v>171</v>
@@ -11374,12 +11378,12 @@
   <dimension ref="B1:G81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C1" t="s">
         <v>12</v>
       </c>
@@ -11387,7 +11391,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
         <v>13</v>
       </c>
@@ -11395,7 +11399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -11407,7 +11411,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F4">
         <f>F3/(3600*1000)</f>
         <v>0.75</v>
@@ -11416,7 +11420,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -11430,7 +11434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6">
         <f>0</f>
         <v>0</v>
@@ -11446,7 +11450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7">
         <f>B6+1</f>
         <v>1</v>
@@ -11463,8 +11467,12 @@
         <f>-D7*$F$3</f>
         <v>281.26730554493105</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f>E7/1000</f>
+        <v>0.28126730554493107</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8">
         <f t="shared" ref="B8:B31" si="1">B7+1</f>
         <v>2</v>
@@ -11481,8 +11489,12 @@
         <f t="shared" ref="E8:E71" si="3">-D8*$F$3</f>
         <v>279.50927671896557</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" ref="F8:F71" si="4">E8/1000</f>
+        <v>0.27950927671896558</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -11499,8 +11511,12 @@
         <f t="shared" si="3"/>
         <v>277.76223624924489</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>0.2777622362492449</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -11517,8 +11533,12 @@
         <f t="shared" si="3"/>
         <v>276.02611545430869</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>0.27602611545430872</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -11535,8 +11555,12 @@
         <f t="shared" si="3"/>
         <v>274.30084608200286</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>0.27430084608200284</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -11553,8 +11577,12 @@
         <f t="shared" si="3"/>
         <v>272.58636030675245</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>0.27258636030675243</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -11571,8 +11599,12 @@
         <f t="shared" si="3"/>
         <v>270.88259072693302</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="4"/>
+        <v>0.27088259072693299</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -11589,8 +11621,12 @@
         <f t="shared" si="3"/>
         <v>269.18947036220834</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="4"/>
+        <v>0.26918947036220836</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -11607,8 +11643,12 @@
         <f t="shared" si="3"/>
         <v>267.50693265087722</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="4"/>
+        <v>0.26750693265087722</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -11625,8 +11665,12 @@
         <f t="shared" si="3"/>
         <v>265.83491144729078</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="4"/>
+        <v>0.26583491144729077</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -11643,8 +11687,12 @@
         <f t="shared" si="3"/>
         <v>264.17334101923927</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="4"/>
+        <v>0.26417334101923928</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -11661,8 +11709,12 @@
         <f t="shared" si="3"/>
         <v>262.52215604533944</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>0.26252215604533946</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -11679,8 +11731,12 @@
         <f t="shared" si="3"/>
         <v>260.88129161252141</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="4"/>
+        <v>0.26088129161252138</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B20">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -11697,8 +11753,12 @@
         <f t="shared" si="3"/>
         <v>259.2506832134406</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>0.25925068321344058</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B21">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -11715,8 +11775,12 @@
         <f t="shared" si="3"/>
         <v>257.63026674392006</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="4"/>
+        <v>0.25763026674392003</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B22">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -11733,8 +11797,12 @@
         <f t="shared" si="3"/>
         <v>256.01997850050742</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f t="shared" si="4"/>
+        <v>0.25601997850050739</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B23">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -11751,8 +11819,12 @@
         <f t="shared" si="3"/>
         <v>254.41975517786651</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="4"/>
+        <v>0.25441975517786652</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B24">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -11769,8 +11841,12 @@
         <f t="shared" si="3"/>
         <v>252.82953386639997</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>0.25282953386639995</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B25">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -11787,8 +11863,12 @@
         <f t="shared" si="3"/>
         <v>251.24925204966564</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>0.25124925204966564</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B26">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -11805,8 +11885,12 @@
         <f t="shared" si="3"/>
         <v>249.67884760202398</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>0.24967884760202397</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B27">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -11823,8 +11907,12 @@
         <f t="shared" si="3"/>
         <v>248.11825878609471</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f t="shared" si="4"/>
+        <v>0.24811825878609473</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B28">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -11841,8 +11929,12 @@
         <f t="shared" si="3"/>
         <v>246.56742425042398</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>0.24656742425042399</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B29">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -11859,8 +11951,12 @@
         <f t="shared" si="3"/>
         <v>245.02628302699611</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>0.24502628302699611</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B30">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -11877,8 +11973,12 @@
         <f t="shared" si="3"/>
         <v>243.4947745288957</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>0.2434947745288957</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B31">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -11895,8 +11995,12 @@
         <f t="shared" si="3"/>
         <v>241.9728385478742</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f t="shared" si="4"/>
+        <v>0.24197283854787421</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B32">
         <f>B31+5</f>
         <v>30</v>
@@ -11913,10 +12017,14 @@
         <f t="shared" si="3"/>
         <v>237.47320475301993</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>0.23747320475301992</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B33">
-        <f t="shared" ref="B33:B37" si="4">B32+5</f>
+        <f t="shared" ref="B33:B37" si="5">B32+5</f>
         <v>35</v>
       </c>
       <c r="C33">
@@ -11931,80 +12039,100 @@
         <f t="shared" si="3"/>
         <v>230.14390680279519</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <f t="shared" si="4"/>
+        <v>0.23014390680279517</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B34">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>0.77817799159475398</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>-8.2607710366094198E-5</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>223.04081798845434</v>
+      </c>
+      <c r="F34">
         <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="0"/>
-        <v>0.77817799159475398</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="2"/>
-        <v>-8.2607710366094198E-5</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="3"/>
-        <v>223.04081798845434</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+        <v>0.22304081798845435</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B35">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>0.75416055196556364</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>-8.0058132097301141E-5</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>216.15695666271307</v>
+      </c>
+      <c r="F35">
         <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="0"/>
-        <v>0.75416055196556364</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="2"/>
-        <v>-8.0058132097301141E-5</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="3"/>
-        <v>216.15695666271307</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+        <v>0.21615695666271306</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B36">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>0.73088437900360415</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>-7.7587243206531656E-5</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>209.48555665763547</v>
+      </c>
+      <c r="F36">
         <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="0"/>
-        <v>0.73088437900360415</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="2"/>
-        <v>-7.7587243206531656E-5</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="3"/>
-        <v>209.48555665763547</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+        <v>0.20948555665763546</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B37">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>0.7083265944886975</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>-7.5192615049688813E-5</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>203.02006063415979</v>
+      </c>
+      <c r="F37">
         <f t="shared" si="4"/>
-        <v>55</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="0"/>
-        <v>0.7083265944886975</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="2"/>
-        <v>-7.5192615049688813E-5</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="3"/>
-        <v>203.02006063415979</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+        <v>0.20302006063415978</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B38">
         <f>B37+5</f>
         <v>60</v>
@@ -12021,8 +12149,12 @@
         <f t="shared" si="3"/>
         <v>196.75411363686314</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f t="shared" si="4"/>
+        <v>0.19675411363686313</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B39">
         <f>B38+10</f>
         <v>70</v>
@@ -12039,10 +12171,14 @@
         <f t="shared" si="3"/>
         <v>187.73898918996673</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <f t="shared" si="4"/>
+        <v>0.18773898918996673</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B40">
-        <f t="shared" ref="B40:B50" si="5">B39+10</f>
+        <f t="shared" ref="B40:B50" si="6">B39+10</f>
         <v>80</v>
       </c>
       <c r="C40">
@@ -12057,10 +12193,14 @@
         <f t="shared" si="3"/>
         <v>176.32918947973818</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <f t="shared" si="4"/>
+        <v>0.17632918947973816</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="C41">
@@ -12075,10 +12215,14 @@
         <f t="shared" si="3"/>
         <v>165.61281807648598</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <f t="shared" si="4"/>
+        <v>0.16561281807648598</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="C42">
@@ -12093,10 +12237,14 @@
         <f t="shared" si="3"/>
         <v>155.5477320128378</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <f t="shared" si="4"/>
+        <v>0.15554773201283781</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>110</v>
       </c>
       <c r="C43">
@@ -12111,10 +12259,14 @@
         <f t="shared" si="3"/>
         <v>146.094349551878</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <f t="shared" si="4"/>
+        <v>0.146094349551878</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>120</v>
       </c>
       <c r="C44">
@@ -12129,10 +12281,14 @@
         <f t="shared" si="3"/>
         <v>137.21549452887325</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <f t="shared" si="4"/>
+        <v>0.13721549452887324</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>130</v>
       </c>
       <c r="C45">
@@ -12147,10 +12303,14 @@
         <f t="shared" si="3"/>
         <v>128.87625015310701</v>
       </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <f t="shared" si="4"/>
+        <v>0.128876250153107</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>140</v>
       </c>
       <c r="C46">
@@ -12165,8 +12325,12 @@
         <f t="shared" si="3"/>
         <v>121.04382169486941</v>
       </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <f t="shared" si="4"/>
+        <v>0.12104382169486941</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B47">
         <f>B46+10</f>
         <v>150</v>
@@ -12183,10 +12347,14 @@
         <f t="shared" si="3"/>
         <v>113.68740751762212</v>
       </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <f t="shared" si="4"/>
+        <v>0.11368740751762212</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>160</v>
       </c>
       <c r="C48">
@@ -12201,8 +12369,12 @@
         <f t="shared" si="3"/>
         <v>106.77807794815965</v>
       </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <f t="shared" si="4"/>
+        <v>0.10677807794815965</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B49">
         <f>B48+10</f>
         <v>170</v>
@@ -12219,10 +12391,14 @@
         <f t="shared" si="3"/>
         <v>100.28866150840798</v>
       </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <f t="shared" si="4"/>
+        <v>0.10028866150840798</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>180</v>
       </c>
       <c r="C50">
@@ -12237,8 +12413,12 @@
         <f t="shared" si="3"/>
         <v>94.193638061466629</v>
       </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <f t="shared" si="4"/>
+        <v>9.4193638061466634E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B51">
         <f>B50+30</f>
         <v>210</v>
@@ -12255,10 +12435,14 @@
         <f t="shared" si="3"/>
         <v>83.201272629354477</v>
       </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <f t="shared" si="4"/>
+        <v>8.3201272629354478E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B52">
-        <f t="shared" ref="B52:B81" si="6">B51+30</f>
+        <f t="shared" ref="B52:B81" si="7">B51+30</f>
         <v>240</v>
       </c>
       <c r="C52">
@@ -12273,10 +12457,14 @@
         <f t="shared" si="3"/>
         <v>68.93490432604051</v>
       </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <f t="shared" si="4"/>
+        <v>6.8934904326040505E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>270</v>
       </c>
       <c r="C53">
@@ -12291,10 +12479,14 @@
         <f t="shared" si="3"/>
         <v>57.114763804270993</v>
       </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <f t="shared" si="4"/>
+        <v>5.7114763804270996E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="C54">
@@ -12309,10 +12501,14 @@
         <f t="shared" si="3"/>
         <v>47.321400911633738</v>
       </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <f t="shared" si="4"/>
+        <v>4.732140091163374E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330</v>
       </c>
       <c r="C55">
@@ -12327,10 +12523,14 @@
         <f t="shared" si="3"/>
         <v>39.207287837406945</v>
       </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <f t="shared" si="4"/>
+        <v>3.9207287837406943E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>360</v>
       </c>
       <c r="C56">
@@ -12345,8 +12545,12 @@
         <f t="shared" si="3"/>
         <v>32.484486721680391</v>
       </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <f t="shared" si="4"/>
+        <v>3.2484486721680389E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B57">
         <f>B56+30</f>
         <v>390</v>
@@ -12363,10 +12567,14 @@
         <f t="shared" si="3"/>
         <v>26.91443187672477</v>
       </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <f t="shared" si="4"/>
+        <v>2.6914431876724768E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>420</v>
       </c>
       <c r="C58">
@@ -12381,10 +12589,14 @@
         <f t="shared" si="3"/>
         <v>22.299464031961985</v>
       </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <f t="shared" si="4"/>
+        <v>2.2299464031961987E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>450</v>
       </c>
       <c r="C59">
@@ -12399,10 +12611,14 @@
         <f t="shared" si="3"/>
         <v>18.475816186289133</v>
       </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <f t="shared" si="4"/>
+        <v>1.8475816186289132E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>480</v>
       </c>
       <c r="C60">
@@ -12417,10 +12633,14 @@
         <f t="shared" si="3"/>
         <v>15.307802163328844</v>
       </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <f t="shared" si="4"/>
+        <v>1.5307802163328844E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>510</v>
       </c>
       <c r="C61">
@@ -12435,10 +12655,14 @@
         <f t="shared" si="3"/>
         <v>12.683001644360985</v>
       </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <f t="shared" si="4"/>
+        <v>1.2683001644360986E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>540</v>
       </c>
       <c r="C62">
@@ -12453,10 +12677,14 @@
         <f t="shared" si="3"/>
         <v>10.508270814749192</v>
       </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <f t="shared" si="4"/>
+        <v>1.0508270814749192E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>570</v>
       </c>
       <c r="C63">
@@ -12471,10 +12699,14 @@
         <f t="shared" si="3"/>
         <v>8.7064370574457506</v>
       </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <f t="shared" si="4"/>
+        <v>8.7064370574457504E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>600</v>
       </c>
       <c r="C64">
@@ -12489,10 +12721,14 @@
         <f t="shared" si="3"/>
         <v>7.213560401286057</v>
       </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <f t="shared" si="4"/>
+        <v>7.2135604012860573E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>630</v>
       </c>
       <c r="C65">
@@ -12507,10 +12743,14 @@
         <f t="shared" si="3"/>
         <v>5.976664543678198</v>
       </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <f t="shared" si="4"/>
+        <v>5.9766645436781984E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>660</v>
       </c>
       <c r="C66">
@@ -12525,10 +12765,14 @@
         <f t="shared" si="3"/>
         <v>4.9518569306346816</v>
       </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <f t="shared" si="4"/>
+        <v>4.9518569306346814E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>690</v>
       </c>
       <c r="C67">
@@ -12543,10 +12787,14 @@
         <f t="shared" si="3"/>
         <v>4.1027711832031271</v>
       </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <f t="shared" si="4"/>
+        <v>4.102771183203127E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>720</v>
       </c>
       <c r="C68">
@@ -12561,10 +12809,14 @@
         <f t="shared" si="3"/>
         <v>3.3992765981557551</v>
       </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <f t="shared" si="4"/>
+        <v>3.3992765981557551E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>750</v>
       </c>
       <c r="C69">
@@ -12579,10 +12831,14 @@
         <f t="shared" si="3"/>
         <v>2.8164089282084119</v>
       </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <f t="shared" si="4"/>
+        <v>2.8164089282084119E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>780</v>
       </c>
       <c r="C70">
@@ -12597,14 +12853,18 @@
         <f t="shared" si="3"/>
         <v>2.3334844993771631</v>
       </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <f t="shared" si="4"/>
+        <v>2.3334844993771631E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>810</v>
       </c>
       <c r="C71">
-        <f t="shared" ref="C71:C81" si="7">EXP(-0.00627*B71)</f>
+        <f t="shared" ref="C71:C81" si="8">EXP(-0.00627*B71)</f>
         <v>6.2280001557646781E-3</v>
       </c>
       <c r="D71">
@@ -12615,190 +12875,235 @@
         <f t="shared" si="3"/>
         <v>1.9333662289933615</v>
       </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <f t="shared" si="4"/>
+        <v>1.9333662289933615E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>840</v>
       </c>
       <c r="C72">
+        <f t="shared" si="8"/>
+        <v>5.160096490263672E-3</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ref="D72:D81" si="9">(C72-C71)/((B72-B71)*60)</f>
+        <v>-5.9327981416722563E-7</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ref="E72:E81" si="10">-D72*$F$3</f>
+        <v>1.6018554982515092</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ref="F72:F81" si="11">E72/1000</f>
+        <v>1.6018554982515092E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B73">
         <f t="shared" si="7"/>
-        <v>5.160096490263672E-3</v>
-      </c>
-      <c r="D72">
-        <f t="shared" ref="D72:D81" si="8">(C72-C71)/((B72-B71)*60)</f>
-        <v>-5.9327981416722563E-7</v>
-      </c>
-      <c r="E72">
-        <f t="shared" ref="E72:E81" si="9">-D72*$F$3</f>
-        <v>1.6018554982515092</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73">
-        <f t="shared" si="6"/>
         <v>870</v>
       </c>
       <c r="C73">
+        <f t="shared" si="8"/>
+        <v>4.2753042907659033E-3</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="9"/>
+        <v>-4.9155122194320482E-7</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="10"/>
+        <v>1.327188299246653</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="11"/>
+        <v>1.327188299246653E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B74">
         <f t="shared" si="7"/>
-        <v>4.2753042907659033E-3</v>
-      </c>
-      <c r="D73">
+        <v>900</v>
+      </c>
+      <c r="C74">
         <f t="shared" si="8"/>
-        <v>-4.9155122194320482E-7</v>
-      </c>
-      <c r="E73">
+        <v>3.5422257729345982E-3</v>
+      </c>
+      <c r="D74">
         <f t="shared" si="9"/>
-        <v>1.327188299246653</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74">
-        <f t="shared" si="6"/>
-        <v>900</v>
-      </c>
-      <c r="C74">
+        <v>-4.072658432396139E-7</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="10"/>
+        <v>1.0996177767469575</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="11"/>
+        <v>1.0996177767469576E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B75">
         <f t="shared" si="7"/>
-        <v>3.5422257729345982E-3</v>
-      </c>
-      <c r="D74">
+        <v>930</v>
+      </c>
+      <c r="C75">
         <f t="shared" si="8"/>
-        <v>-4.072658432396139E-7</v>
-      </c>
-      <c r="E74">
+        <v>2.9348468724302926E-3</v>
+      </c>
+      <c r="D75">
         <f t="shared" si="9"/>
-        <v>1.0996177767469575</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75">
-        <f t="shared" si="6"/>
-        <v>930</v>
-      </c>
-      <c r="C75">
+        <v>-3.3743272250239202E-7</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="10"/>
+        <v>0.91106835075645842</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="11"/>
+        <v>9.110683507564584E-4</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B76">
         <f t="shared" si="7"/>
-        <v>2.9348468724302926E-3</v>
-      </c>
-      <c r="D75">
+        <v>960</v>
+      </c>
+      <c r="C76">
         <f t="shared" si="8"/>
-        <v>-3.3743272250239202E-7</v>
-      </c>
-      <c r="E75">
+        <v>2.4316141084022584E-3</v>
+      </c>
+      <c r="D76">
         <f t="shared" si="9"/>
-        <v>0.91106835075645842</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76">
-        <f t="shared" si="6"/>
-        <v>960</v>
-      </c>
-      <c r="C76">
+        <v>-2.7957375779335232E-7</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="10"/>
+        <v>0.75484914604205122</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="11"/>
+        <v>7.5484914604205121E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B77">
         <f t="shared" si="7"/>
-        <v>2.4316141084022584E-3</v>
-      </c>
-      <c r="D76">
+        <v>990</v>
+      </c>
+      <c r="C77">
         <f t="shared" si="8"/>
-        <v>-2.7957375779335232E-7</v>
-      </c>
-      <c r="E76">
+        <v>2.014669735489361E-3</v>
+      </c>
+      <c r="D77">
         <f t="shared" si="9"/>
-        <v>0.75484914604205122</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77">
-        <f t="shared" si="6"/>
-        <v>990</v>
-      </c>
-      <c r="C77">
+        <v>-2.3163576272938746E-7</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="10"/>
+        <v>0.62541655936934615</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="11"/>
+        <v>6.2541655936934615E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B78">
         <f t="shared" si="7"/>
-        <v>2.014669735489361E-3</v>
-      </c>
-      <c r="D77">
+        <v>1020</v>
+      </c>
+      <c r="C78">
         <f t="shared" si="8"/>
-        <v>-2.3163576272938746E-7</v>
-      </c>
-      <c r="E77">
+        <v>1.6692180428924004E-3</v>
+      </c>
+      <c r="D78">
         <f t="shared" si="9"/>
-        <v>0.62541655936934615</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78">
-        <f t="shared" si="6"/>
-        <v>1020</v>
-      </c>
-      <c r="C78">
+        <v>-1.9191760699831143E-7</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="10"/>
+        <v>0.51817753889544083</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="11"/>
+        <v>5.1817753889544084E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B79">
         <f t="shared" si="7"/>
-        <v>1.6692180428924004E-3</v>
-      </c>
-      <c r="D78">
+        <v>1050</v>
+      </c>
+      <c r="C79">
         <f t="shared" si="8"/>
-        <v>-1.9191760699831143E-7</v>
-      </c>
-      <c r="E78">
+        <v>1.3830003129722648E-3</v>
+      </c>
+      <c r="D79">
         <f t="shared" si="9"/>
-        <v>0.51817753889544083</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79">
-        <f t="shared" si="6"/>
-        <v>1050</v>
-      </c>
-      <c r="C79">
+        <v>-1.5900984995563094E-7</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="10"/>
+        <v>0.42932659488020353</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="11"/>
+        <v>4.2932659488020353E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B80">
         <f t="shared" si="7"/>
-        <v>1.3830003129722648E-3</v>
-      </c>
-      <c r="D79">
+        <v>1080</v>
+      </c>
+      <c r="C80">
         <f t="shared" si="8"/>
-        <v>-1.5900984995563094E-7</v>
-      </c>
-      <c r="E79">
+        <v>1.1458598077259568E-3</v>
+      </c>
+      <c r="D80">
         <f t="shared" si="9"/>
-        <v>0.42932659488020353</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B80">
-        <f t="shared" si="6"/>
-        <v>1080</v>
-      </c>
-      <c r="C80">
+        <v>-1.3174472513683775E-7</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="10"/>
+        <v>0.35571075786946194</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="11"/>
+        <v>3.5571075786946192E-4</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B81">
         <f t="shared" si="7"/>
-        <v>1.1458598077259568E-3</v>
-      </c>
-      <c r="D80">
+        <v>1110</v>
+      </c>
+      <c r="C81">
         <f t="shared" si="8"/>
-        <v>-1.3174472513683775E-7</v>
-      </c>
-      <c r="E80">
+        <v>9.4938134622685145E-4</v>
+      </c>
+      <c r="D81">
         <f t="shared" si="9"/>
-        <v>0.35571075786946194</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81">
-        <f t="shared" si="6"/>
-        <v>1110</v>
-      </c>
-      <c r="C81">
-        <f t="shared" si="7"/>
-        <v>9.4938134622685145E-4</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="8"/>
         <v>-1.091547008328363E-7</v>
       </c>
       <c r="E81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.29471769224865801</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="11"/>
+        <v>2.9471769224865803E-4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12807,12 +13112,12 @@
   <dimension ref="B1:G46"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C1" t="s">
         <v>15</v>
       </c>
@@ -12823,7 +13128,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
         <v>16</v>
       </c>
@@ -12831,7 +13136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>17</v>
       </c>
@@ -12843,7 +13148,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F4">
         <f>F3/(3600*1000)</f>
         <v>0.18611111111111112</v>
@@ -12852,7 +13157,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -12866,7 +13171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6">
         <f>0</f>
         <v>0</v>
@@ -12882,7 +13187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7">
         <f>B6+0.1</f>
         <v>0.1</v>
@@ -12899,8 +13204,12 @@
         <f>-D7*$F$3</f>
         <v>1646.7382558392021</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f>E7/1000</f>
+        <v>1.6467382558392021</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8">
         <f t="shared" ref="B8:B15" si="1">B7+0.1</f>
         <v>0.2</v>
@@ -12918,7 +13227,7 @@
         <v>1630.4686148745141</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9">
         <f t="shared" si="1"/>
         <v>0.30000000000000004</v>
@@ -12936,7 +13245,7 @@
         <v>1614.2797449450507</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10">
         <f t="shared" si="1"/>
         <v>0.4</v>
@@ -12954,7 +13263,7 @@
         <v>1598.1716460509012</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -12972,7 +13281,7 @@
         <v>1582.1443181920008</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12">
         <f t="shared" si="1"/>
         <v>0.6</v>
@@ -12990,7 +13299,7 @@
         <v>1566.1977613684128</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13">
         <f t="shared" si="1"/>
         <v>0.7</v>
@@ -13008,7 +13317,7 @@
         <v>1550.3319755801122</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14">
         <f t="shared" si="1"/>
         <v>0.79999999999999993</v>
@@ -13026,7 +13335,7 @@
         <v>1534.5469608270366</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15">
         <f t="shared" si="1"/>
         <v>0.89999999999999991</v>
@@ -13044,7 +13353,7 @@
         <v>1518.8427171092733</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16">
         <f>B15+0.1</f>
         <v>0.99999999999999989</v>
@@ -13062,7 +13371,7 @@
         <v>1503.2192444268469</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17">
         <f>B16+0.5</f>
         <v>1.5</v>
@@ -13080,7 +13389,7 @@
         <v>1456.9142236263331</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18">
         <f t="shared" ref="B18:B23" si="4">B17+0.5</f>
         <v>2</v>
@@ -13098,7 +13407,7 @@
         <v>1381.2199912723343</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19">
         <f t="shared" si="4"/>
         <v>2.5</v>
@@ -13116,7 +13425,7 @@
         <v>1307.5450348003233</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -13134,7 +13443,7 @@
         <v>1235.8893542103353</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21">
         <f t="shared" si="4"/>
         <v>3.5</v>
@@ -13152,7 +13461,7 @@
         <v>1166.2529495023355</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -13170,7 +13479,7 @@
         <v>1098.6358206763337</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23">
         <f t="shared" si="4"/>
         <v>4.5</v>
@@ -13188,7 +13497,7 @@
         <v>1033.0379677323363</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24">
         <f>B23+0.5</f>
         <v>5</v>
@@ -13206,7 +13515,7 @@
         <v>969.45939067033339</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25">
         <f>B24+0.5</f>
         <v>5.5</v>
@@ -13224,7 +13533,7 @@
         <v>907.90008949033336</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B26">
         <f t="shared" ref="B26:B27" si="5">B25+0.5</f>
         <v>6</v>
@@ -13242,7 +13551,7 @@
         <v>848.36006419232922</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B27">
         <f t="shared" si="5"/>
         <v>6.5</v>
@@ -13260,7 +13569,7 @@
         <v>790.83931477633917</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B28">
         <f>B27+0.5</f>
         <v>7</v>
@@ -13278,7 +13587,7 @@
         <v>735.33784124232875</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B29">
         <f t="shared" ref="B29:B46" si="6">B28+0.5</f>
         <v>7.5</v>
@@ -13296,7 +13605,7 @@
         <v>681.85564359033378</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B30">
         <f t="shared" si="6"/>
         <v>8</v>
@@ -13314,7 +13623,7 @@
         <v>630.3927218203338</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B31">
         <f t="shared" si="6"/>
         <v>8.5</v>
@@ -13332,7 +13641,7 @@
         <v>580.94907593233438</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B32">
         <f t="shared" si="6"/>
         <v>9</v>
@@ -13350,7 +13659,7 @@
         <v>533.52470592633256</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B33">
         <f t="shared" si="6"/>
         <v>9.5</v>
@@ -13368,7 +13677,7 @@
         <v>488.11961180233322</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B34">
         <f t="shared" si="6"/>
         <v>10</v>
@@ -13386,7 +13695,7 @@
         <v>444.73379356033257</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B35">
         <f t="shared" si="6"/>
         <v>10.5</v>
@@ -13404,7 +13713,7 @@
         <v>403.36725120033378</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B36">
         <f t="shared" si="6"/>
         <v>11</v>
@@ -13422,7 +13731,7 @@
         <v>364.01998472233254</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B37">
         <f t="shared" si="6"/>
         <v>11.5</v>
@@ -13440,7 +13749,7 @@
         <v>326.69199412633407</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B38">
         <f t="shared" si="6"/>
         <v>12</v>
@@ -13458,7 +13767,7 @@
         <v>291.38327941233342</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B39">
         <f t="shared" si="6"/>
         <v>12.5</v>
@@ -13476,7 +13785,7 @@
         <v>258.09384058033362</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B40">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -13494,7 +13803,7 @@
         <v>226.82367763033341</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B41">
         <f t="shared" si="6"/>
         <v>13.5</v>
@@ -13512,7 +13821,7 @@
         <v>197.57279056233347</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B42">
         <f t="shared" si="6"/>
         <v>14</v>
@@ -13530,7 +13839,7 @@
         <v>170.34117937633229</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B43">
         <f t="shared" si="6"/>
         <v>14.5</v>
@@ -13548,7 +13857,7 @@
         <v>145.12884407233355</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B44">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -13566,7 +13875,7 @@
         <v>121.93578465033353</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B45">
         <f t="shared" si="6"/>
         <v>15.5</v>
@@ -13584,7 +13893,7 @@
         <v>100.76200111033339</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B46">
         <f t="shared" si="6"/>
         <v>16</v>
@@ -13614,12 +13923,12 @@
   <dimension ref="B1:G75"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C1" t="s">
         <v>18</v>
       </c>
@@ -13627,7 +13936,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
         <v>20</v>
       </c>
@@ -13635,7 +13944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -13647,7 +13956,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F4">
         <f>F3/(3600*1000)</f>
         <v>0.19305555555555556</v>
@@ -13656,7 +13965,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -13670,7 +13979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6">
         <f>0</f>
         <v>0</v>
@@ -13686,7 +13995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7">
         <f>B6+1</f>
         <v>1</v>
@@ -13703,8 +14012,12 @@
         <f>-D7*$F$3</f>
         <v>84.767892154311397</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f>E7/1000</f>
+        <v>8.4767892154311394E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8">
         <f t="shared" ref="B8:B31" si="1">B7+1</f>
         <v>2</v>
@@ -13721,8 +14034,12 @@
         <f t="shared" ref="E8:E71" si="3">-D8*$F$3</f>
         <v>84.14755297097814</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" ref="F8:F71" si="4">E8/1000</f>
+        <v>8.4147552970978146E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -13739,8 +14056,12 @@
         <f t="shared" si="3"/>
         <v>83.531753486491425</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>8.3531753486491431E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -13757,8 +14078,12 @@
         <f t="shared" si="3"/>
         <v>82.92046047892336</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>8.2920460478923361E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -13775,8 +14100,12 @@
         <f t="shared" si="3"/>
         <v>82.313640969462071</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>8.2313640969462074E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -13793,8 +14122,12 @@
         <f t="shared" si="3"/>
         <v>81.711262220638261</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>8.1711262220638264E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -13811,8 +14144,12 @@
         <f t="shared" si="3"/>
         <v>81.113291734563461</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="4"/>
+        <v>8.1113291734563456E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -13829,8 +14166,12 @@
         <f t="shared" si="3"/>
         <v>80.51969725116426</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="4"/>
+        <v>8.0519697251164257E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -13847,8 +14188,12 @@
         <f t="shared" si="3"/>
         <v>79.930446746455246</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="4"/>
+        <v>7.9930446746455247E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -13865,8 +14210,12 @@
         <f t="shared" si="3"/>
         <v>79.345508430801573</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="4"/>
+        <v>7.934550843080157E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -13883,8 +14232,12 @@
         <f t="shared" si="3"/>
         <v>78.764850747211185</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="4"/>
+        <v>7.8764850747211179E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -13901,8 +14254,12 @@
         <f t="shared" si="3"/>
         <v>78.18844236962569</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>7.8188442369625688E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -13919,8 +14276,12 @@
         <f t="shared" si="3"/>
         <v>77.616252201238225</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="4"/>
+        <v>7.7616252201238231E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B20">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -13937,8 +14298,12 @@
         <f t="shared" si="3"/>
         <v>77.048249372805003</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>7.7048249372805008E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B21">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -13955,8 +14320,12 @@
         <f t="shared" si="3"/>
         <v>76.484403240990119</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="4"/>
+        <v>7.6484403240990123E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B22">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -13973,8 +14342,12 @@
         <f t="shared" si="3"/>
         <v>75.924683386710598</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f t="shared" si="4"/>
+        <v>7.5924683386710601E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B23">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -13991,8 +14364,12 @@
         <f t="shared" si="3"/>
         <v>75.369059613484993</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="4"/>
+        <v>7.5369059613484987E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B24">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -14009,8 +14386,12 @@
         <f t="shared" si="3"/>
         <v>74.817501945824731</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>7.4817501945824733E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B25">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -14027,8 +14408,12 @@
         <f t="shared" si="3"/>
         <v>74.269980627590527</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>7.4269980627590521E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B26">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -14045,8 +14430,12 @@
         <f t="shared" si="3"/>
         <v>73.72646612041315</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>7.3726466120413156E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B27">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -14063,8 +14452,12 @@
         <f t="shared" si="3"/>
         <v>73.186929102080811</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f t="shared" si="4"/>
+        <v>7.3186929102080814E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B28">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -14081,8 +14474,12 @@
         <f t="shared" si="3"/>
         <v>72.65134046496766</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>7.2651340464967656E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B29">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -14099,8 +14496,12 @@
         <f t="shared" si="3"/>
         <v>72.119671314458387</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>7.2119671314458386E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B30">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -14117,8 +14518,12 @@
         <f t="shared" si="3"/>
         <v>71.591892967390891</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>7.1591892967390894E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B31">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -14135,8 +14540,12 @@
         <f t="shared" si="3"/>
         <v>71.067976950513085</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f t="shared" si="4"/>
+        <v>7.106797695051309E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B32">
         <f>B31+5</f>
         <v>30</v>
@@ -14153,10 +14562,14 @@
         <f t="shared" si="3"/>
         <v>69.522871810997685</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>6.9522871810997686E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B33">
-        <f t="shared" ref="B33:B37" si="4">B32+5</f>
+        <f t="shared" ref="B33:B37" si="5">B32+5</f>
         <v>35</v>
       </c>
       <c r="C33">
@@ -14171,80 +14584,100 @@
         <f t="shared" si="3"/>
         <v>67.015959280183623</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <f t="shared" si="4"/>
+        <v>6.7015959280183626E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B34">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>0.74542556164810081</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>-9.2948838921198546E-5</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>64.599443050232992</v>
+      </c>
+      <c r="F34">
         <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="0"/>
-        <v>0.74542556164810081</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="2"/>
-        <v>-9.2948838921198546E-5</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="3"/>
-        <v>64.599443050232992</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+        <v>6.4599443050232991E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B35">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>0.7185463975312153</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>-8.9597213722951706E-5</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>62.270063537451435</v>
+      </c>
+      <c r="F35">
         <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="0"/>
-        <v>0.7185463975312153</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="2"/>
-        <v>-8.9597213722951706E-5</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="3"/>
-        <v>62.270063537451435</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+        <v>6.2270063537451438E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B36">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>0.69263646428162795</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>-8.6366444165291155E-5</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>60.024678694877352</v>
+      </c>
+      <c r="F36">
         <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="0"/>
-        <v>0.69263646428162795</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="2"/>
-        <v>-8.6366444165291155E-5</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="3"/>
-        <v>60.024678694877352</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+        <v>6.0024678694877355E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B37">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>0.66766081258060117</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>-8.3252172336755931E-5</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>57.860259774045375</v>
+      </c>
+      <c r="F37">
         <f t="shared" si="4"/>
-        <v>55</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="0"/>
-        <v>0.66766081258060117</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="2"/>
-        <v>-8.3252172336755931E-5</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="3"/>
-        <v>57.860259774045375</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+        <v>5.7860259774045374E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B38">
         <f>B37+5</f>
         <v>60</v>
@@ -14261,8 +14694,12 @@
         <f t="shared" si="3"/>
         <v>55.773887239578386</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f t="shared" si="4"/>
+        <v>5.5773887239578386E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B39">
         <f>B38+10</f>
         <v>70</v>
@@ -14279,10 +14716,14 @@
         <f t="shared" si="3"/>
         <v>52.79343629909696</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <f t="shared" si="4"/>
+        <v>5.2793436299096962E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B40">
-        <f t="shared" ref="B40:B50" si="5">B39+10</f>
+        <f t="shared" ref="B40:B50" si="6">B39+10</f>
         <v>80</v>
       </c>
       <c r="C40">
@@ -14297,10 +14738,14 @@
         <f t="shared" si="3"/>
         <v>49.054742601845717</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <f t="shared" si="4"/>
+        <v>4.9054742601845717E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="C41">
@@ -14315,10 +14760,14 @@
         <f t="shared" si="3"/>
         <v>45.580813457571793</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <f t="shared" si="4"/>
+        <v>4.5580813457571791E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="C42">
@@ -14333,10 +14782,14 @@
         <f t="shared" si="3"/>
         <v>42.352898930016693</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <f t="shared" si="4"/>
+        <v>4.2352898930016696E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>110</v>
       </c>
       <c r="C43">
@@ -14351,10 +14804,14 @@
         <f t="shared" si="3"/>
         <v>39.353576904587484</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <f t="shared" si="4"/>
+        <v>3.9353576904587483E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>120</v>
       </c>
       <c r="C44">
@@ -14369,10 +14826,14 @@
         <f t="shared" si="3"/>
         <v>36.566659055483839</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <f t="shared" si="4"/>
+        <v>3.6566659055483841E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>130</v>
       </c>
       <c r="C45">
@@ -14387,10 +14848,14 @@
         <f t="shared" si="3"/>
         <v>33.977103471987789</v>
       </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <f t="shared" si="4"/>
+        <v>3.3977103471987791E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>140</v>
       </c>
       <c r="C46">
@@ -14405,8 +14870,12 @@
         <f t="shared" si="3"/>
         <v>31.57093347233296</v>
       </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <f t="shared" si="4"/>
+        <v>3.157093347233296E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B47">
         <f>B46+10</f>
         <v>150</v>
@@ -14423,10 +14892,14 @@
         <f t="shared" si="3"/>
         <v>29.335162166963894</v>
       </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <f t="shared" si="4"/>
+        <v>2.9335162166963892E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>160</v>
       </c>
       <c r="C48">
@@ -14441,8 +14914,12 @@
         <f t="shared" si="3"/>
         <v>27.257722364028641</v>
       </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <f t="shared" si="4"/>
+        <v>2.7257722364028642E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B49">
         <f>B48+10</f>
         <v>170</v>
@@ -14459,10 +14936,14 @@
         <f t="shared" si="3"/>
         <v>25.327401438782125</v>
       </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <f t="shared" si="4"/>
+        <v>2.5327401438782125E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>180</v>
       </c>
       <c r="C50">
@@ -14477,8 +14958,12 @@
         <f t="shared" si="3"/>
         <v>23.533780815368623</v>
       </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <f t="shared" si="4"/>
+        <v>2.3533780815368624E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B51">
         <f>B50+30</f>
         <v>210</v>
@@ -14495,10 +14980,14 @@
         <f t="shared" si="3"/>
         <v>20.355158393130782</v>
       </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <f t="shared" si="4"/>
+        <v>2.0355158393130783E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B52">
-        <f t="shared" ref="B52:B75" si="6">B51+30</f>
+        <f t="shared" ref="B52:B75" si="7">B51+30</f>
         <v>240</v>
       </c>
       <c r="C52">
@@ -14513,10 +15002,14 @@
         <f t="shared" si="3"/>
         <v>16.329680857381415</v>
       </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <f t="shared" si="4"/>
+        <v>1.6329680857381415E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>270</v>
       </c>
       <c r="C53">
@@ -14531,10 +15024,14 @@
         <f t="shared" si="3"/>
         <v>13.100289948808179</v>
       </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <f t="shared" si="4"/>
+        <v>1.3100289948808179E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="C54">
@@ -14549,10 +15046,14 @@
         <f t="shared" si="3"/>
         <v>10.509549956407698</v>
       </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <f t="shared" si="4"/>
+        <v>1.0509549956407698E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330</v>
       </c>
       <c r="C55">
@@ -14567,10 +15068,14 @@
         <f t="shared" si="3"/>
         <v>8.4311599756826219</v>
       </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <f t="shared" si="4"/>
+        <v>8.4311599756826221E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>360</v>
       </c>
       <c r="C56">
@@ -14585,8 +15090,12 @@
         <f t="shared" si="3"/>
         <v>6.7637966259642228</v>
       </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <f t="shared" si="4"/>
+        <v>6.763796625964223E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B57">
         <f>B56+30</f>
         <v>390</v>
@@ -14603,10 +15112,14 @@
         <f t="shared" si="3"/>
         <v>5.4261744444839337</v>
       </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <f t="shared" si="4"/>
+        <v>5.4261744444839338E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>420</v>
       </c>
       <c r="C58">
@@ -14621,10 +15134,14 @@
         <f t="shared" si="3"/>
         <v>4.353083146963086</v>
       </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <f t="shared" si="4"/>
+        <v>4.3530831469630856E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>450</v>
       </c>
       <c r="C59">
@@ -14639,10 +15156,14 @@
         <f t="shared" si="3"/>
         <v>3.4922085676101355</v>
       </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <f t="shared" si="4"/>
+        <v>3.4922085676101357E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>480</v>
       </c>
       <c r="C60">
@@ -14657,10 +15178,14 @@
         <f t="shared" si="3"/>
         <v>2.8015822964920449</v>
       </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <f t="shared" si="4"/>
+        <v>2.8015822964920448E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>510</v>
       </c>
       <c r="C61">
@@ -14675,10 +15200,14 @@
         <f t="shared" si="3"/>
         <v>2.2475356818075061</v>
       </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <f t="shared" si="4"/>
+        <v>2.247535681807506E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>540</v>
       </c>
       <c r="C62">
@@ -14693,10 +15222,14 @@
         <f t="shared" si="3"/>
         <v>1.8030584528332287</v>
       </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <f t="shared" si="4"/>
+        <v>1.8030584528332288E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>570</v>
       </c>
       <c r="C63">
@@ -14711,10 +15244,14 @@
         <f t="shared" si="3"/>
         <v>1.4464819449357276</v>
       </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <f t="shared" si="4"/>
+        <v>1.4464819449357277E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>600</v>
       </c>
       <c r="C64">
@@ -14729,10 +15266,14 @@
         <f t="shared" si="3"/>
         <v>1.1604227326836207</v>
       </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <f t="shared" si="4"/>
+        <v>1.1604227326836207E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>630</v>
       </c>
       <c r="C65">
@@ -14747,10 +15288,14 @@
         <f t="shared" si="3"/>
         <v>0.93093517222488342</v>
       </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <f t="shared" si="4"/>
+        <v>9.3093517222488347E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>660</v>
       </c>
       <c r="C66">
@@ -14765,10 +15310,14 @@
         <f t="shared" si="3"/>
         <v>0.74683153860762486</v>
       </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <f t="shared" si="4"/>
+        <v>7.4683153860762486E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>690</v>
       </c>
       <c r="C67">
@@ -14783,10 +15332,14 @@
         <f t="shared" si="3"/>
         <v>0.59913661412751773</v>
       </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <f t="shared" si="4"/>
+        <v>5.9913661412751772E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>720</v>
       </c>
       <c r="C68">
@@ -14801,10 +15354,14 @@
         <f t="shared" si="3"/>
         <v>0.48065013839322945</v>
       </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <f t="shared" si="4"/>
+        <v>4.8065013839322944E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>750</v>
       </c>
       <c r="C69">
@@ -14819,10 +15376,14 @@
         <f t="shared" si="3"/>
         <v>0.38559578915713039</v>
       </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <f t="shared" si="4"/>
+        <v>3.855957891571304E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>780</v>
       </c>
       <c r="C70">
@@ -14837,14 +15398,18 @@
         <f t="shared" si="3"/>
         <v>0.30933958141101997</v>
       </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <f t="shared" si="4"/>
+        <v>3.0933958141101997E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>810</v>
       </c>
       <c r="C71">
-        <f t="shared" ref="C71:C75" si="7">EXP(-0.007345*B71)</f>
+        <f t="shared" ref="C71:C75" si="8">EXP(-0.007345*B71)</f>
         <v>2.6072741248992703E-3</v>
       </c>
       <c r="D71">
@@ -14855,77 +15420,97 @@
         <f t="shared" si="3"/>
         <v>0.24816395644961473</v>
       </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <f t="shared" si="4"/>
+        <v>2.4816395644961474E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>840</v>
       </c>
       <c r="C72">
+        <f t="shared" si="8"/>
+        <v>2.0916542895427206E-3</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ref="D72:D75" si="9">(C72-C71)/((B72-B71)*60)</f>
+        <v>-2.8645546408697207E-7</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ref="E72:E75" si="10">-D72*$F$3</f>
+        <v>0.19908654754044558</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ref="F72:F75" si="11">E72/1000</f>
+        <v>1.9908654754044558E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B73">
         <f t="shared" si="7"/>
-        <v>2.0916542895427206E-3</v>
-      </c>
-      <c r="D72">
-        <f t="shared" ref="D72:D75" si="8">(C72-C71)/((B72-B71)*60)</f>
-        <v>-2.8645546408697207E-7</v>
-      </c>
-      <c r="E72">
-        <f t="shared" ref="E72:E75" si="9">-D72*$F$3</f>
-        <v>0.19908654754044558</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73">
-        <f t="shared" si="6"/>
         <v>870</v>
       </c>
       <c r="C73">
+        <f t="shared" si="8"/>
+        <v>1.6780044818384768E-3</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="9"/>
+        <v>-2.2980544872457993E-7</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="10"/>
+        <v>0.15971478686358306</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="11"/>
+        <v>1.5971478686358306E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B74">
         <f t="shared" si="7"/>
-        <v>1.6780044818384768E-3</v>
-      </c>
-      <c r="D73">
+        <v>900</v>
+      </c>
+      <c r="C74">
         <f t="shared" si="8"/>
-        <v>-2.2980544872457993E-7</v>
-      </c>
-      <c r="E73">
+        <v>1.3461589016632309E-3</v>
+      </c>
+      <c r="D74">
         <f t="shared" si="9"/>
-        <v>0.15971478686358306</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74">
-        <f t="shared" si="6"/>
-        <v>900</v>
-      </c>
-      <c r="C74">
+        <v>-1.8435865565291437E-7</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="10"/>
+        <v>0.12812926567877547</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="11"/>
+        <v>1.2812926567877547E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B75">
         <f t="shared" si="7"/>
-        <v>1.3461589016632309E-3</v>
-      </c>
-      <c r="D74">
+        <v>930</v>
+      </c>
+      <c r="C75">
         <f t="shared" si="8"/>
-        <v>-1.8435865565291437E-7</v>
-      </c>
-      <c r="E74">
+        <v>1.079939778552744E-3</v>
+      </c>
+      <c r="D75">
         <f t="shared" si="9"/>
-        <v>0.12812926567877547</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75">
-        <f t="shared" si="6"/>
-        <v>930</v>
-      </c>
-      <c r="C75">
-        <f t="shared" si="7"/>
-        <v>1.079939778552744E-3</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="8"/>
         <v>-1.478995128391594E-7</v>
       </c>
       <c r="E75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.10279016142321579</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="11"/>
+        <v>1.0279016142321579E-4</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Specific Power Plots for Reactor Scale_bk_12.19.22.xlsx
+++ b/Data/Specific Power Plots for Reactor Scale_bk_12.19.22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atpha\Documents\Postdocs\Projects\TES\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF8E2A7-2DAC-44CC-B873-3D4647E849A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59445A50-ED5E-4508-A809-E037B21689C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" firstSheet="1" activeTab="2" xr2:uid="{CCAFE77B-233B-4F54-892D-EC466BD3AAF1}"/>
+    <workbookView xWindow="4395" yWindow="2535" windowWidth="21600" windowHeight="11055" xr2:uid="{CCAFE77B-233B-4F54-892D-EC466BD3AAF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Constant_power" sheetId="2" r:id="rId1"/>
@@ -7300,16 +7300,21 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -7335,7 +7340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
@@ -7356,7 +7361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0.98989898989898994</v>
       </c>
@@ -7377,7 +7382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0.97979797979798</v>
       </c>
@@ -7398,7 +7403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0.96969696969696995</v>
       </c>
@@ -7419,7 +7424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0.95959595959596</v>
       </c>
@@ -7440,7 +7445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0.94949494949494995</v>
       </c>
@@ -7461,7 +7466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0.939393939393939</v>
       </c>
@@ -7482,7 +7487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>0.92929292929292895</v>
       </c>
@@ -7503,7 +7508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0.919191919191919</v>
       </c>
@@ -7524,7 +7529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>0.90909090909090895</v>
       </c>
@@ -7545,7 +7550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>0.89898989898989901</v>
       </c>
@@ -7566,7 +7571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0.88888888888888895</v>
       </c>
@@ -7587,7 +7592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>0.87878787878787901</v>
       </c>
@@ -7608,7 +7613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>0.86868686868686895</v>
       </c>
@@ -7629,7 +7634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0.85858585858585901</v>
       </c>
@@ -7650,7 +7655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0.84848484848484895</v>
       </c>
@@ -7671,7 +7676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0.83838383838383801</v>
       </c>
@@ -7692,7 +7697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0.82828282828282795</v>
       </c>
@@ -7713,7 +7718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>0.81818181818181801</v>
       </c>
@@ -7734,7 +7739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0.80808080808080796</v>
       </c>
@@ -7755,7 +7760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0.79797979797979801</v>
       </c>
@@ -7776,7 +7781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.78787878787878796</v>
       </c>
@@ -7797,7 +7802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0.77777777777777801</v>
       </c>
@@ -7818,7 +7823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0.76767676767676796</v>
       </c>
@@ -7839,7 +7844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>0.75757575757575801</v>
       </c>
@@ -7860,7 +7865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0.74747474747474696</v>
       </c>
@@ -7881,7 +7886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>0.73737373737373701</v>
       </c>
@@ -7902,7 +7907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>0.72727272727272696</v>
       </c>
@@ -7923,7 +7928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>0.71717171717171702</v>
       </c>
@@ -7944,7 +7949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>0.70707070707070696</v>
       </c>
@@ -7965,7 +7970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>0.69696969696969702</v>
       </c>
@@ -7986,7 +7991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>0.68686868686868696</v>
       </c>
@@ -8007,7 +8012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>0.67676767676767702</v>
       </c>
@@ -8028,7 +8033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>0.66666666666666696</v>
       </c>
@@ -8049,7 +8054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>0.65656565656565702</v>
       </c>
@@ -8070,7 +8075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>0.64646464646464596</v>
       </c>
@@ -8091,7 +8096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>0.63636363636363602</v>
       </c>
@@ -8112,7 +8117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>0.62626262626262597</v>
       </c>
@@ -8133,7 +8138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>0.61616161616161602</v>
       </c>
@@ -8154,7 +8159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>0.60606060606060597</v>
       </c>
@@ -8175,7 +8180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>0.59595959595959602</v>
       </c>
@@ -8196,7 +8201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>0.58585858585858597</v>
       </c>
@@ -8217,7 +8222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>0.57575757575757602</v>
       </c>
@@ -8238,7 +8243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>0.56565656565656597</v>
       </c>
@@ -8259,7 +8264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>0.55555555555555602</v>
       </c>
@@ -8280,7 +8285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>0.54545454545454497</v>
       </c>
@@ -8301,7 +8306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>0.53535353535353503</v>
       </c>
@@ -8322,7 +8327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>0.52525252525252497</v>
       </c>
@@ -8343,7 +8348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>0.51515151515151503</v>
       </c>
@@ -8364,7 +8369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>0.50505050505050497</v>
       </c>
@@ -8385,7 +8390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>0.49494949494949497</v>
       </c>
@@ -8406,7 +8411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>0.48484848484848497</v>
       </c>
@@ -8427,7 +8432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>0.47474747474747497</v>
       </c>
@@ -8448,7 +8453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>0.46464646464646497</v>
       </c>
@@ -8469,7 +8474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>0.45454545454545497</v>
       </c>
@@ -8490,7 +8495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>0.44444444444444398</v>
       </c>
@@ -8511,7 +8516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>0.43434343434343398</v>
       </c>
@@ -8532,7 +8537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>0.42424242424242398</v>
       </c>
@@ -8553,7 +8558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>0.41414141414141398</v>
       </c>
@@ -8574,7 +8579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>0.40404040404040398</v>
       </c>
@@ -8595,7 +8600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>0.39393939393939398</v>
       </c>
@@ -8616,7 +8621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>0.38383838383838398</v>
       </c>
@@ -8637,7 +8642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>0.37373737373737398</v>
       </c>
@@ -8658,7 +8663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>0.36363636363636398</v>
       </c>
@@ -8679,7 +8684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>0.35353535353535398</v>
       </c>
@@ -8700,7 +8705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>0.34343434343434298</v>
       </c>
@@ -8721,7 +8726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>0.33333333333333298</v>
       </c>
@@ -8742,7 +8747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>0.32323232323232298</v>
       </c>
@@ -8763,7 +8768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>0.31313131313131298</v>
       </c>
@@ -8784,7 +8789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>0.30303030303030298</v>
       </c>
@@ -8805,7 +8810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>0.29292929292929298</v>
       </c>
@@ -8826,7 +8831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>0.28282828282828298</v>
       </c>
@@ -8847,7 +8852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>0.27272727272727298</v>
       </c>
@@ -8868,7 +8873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>0.26262626262626299</v>
       </c>
@@ -8889,7 +8894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>0.25252525252525299</v>
       </c>
@@ -8910,7 +8915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>0.24242424242424199</v>
       </c>
@@ -8931,7 +8936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>0.23232323232323199</v>
       </c>
@@ -8952,7 +8957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>0.22222222222222199</v>
       </c>
@@ -8973,7 +8978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>0.21212121212121199</v>
       </c>
@@ -8994,7 +8999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>0.20202020202020199</v>
       </c>
@@ -9015,7 +9020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>0.19191919191919199</v>
       </c>
@@ -9036,7 +9041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>0.18181818181818199</v>
       </c>
@@ -9057,7 +9062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>0.17171717171717199</v>
       </c>
@@ -9078,7 +9083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>0.16161616161616199</v>
       </c>
@@ -9099,7 +9104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>0.15151515151515199</v>
       </c>
@@ -9120,7 +9125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>0.14141414141414099</v>
       </c>
@@ -9141,7 +9146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>0.13131313131313099</v>
       </c>
@@ -9162,7 +9167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>0.12121212121212099</v>
       </c>
@@ -9183,7 +9188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>0.11111111111111099</v>
       </c>
@@ -9204,7 +9209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>0.10101010101010099</v>
       </c>
@@ -9225,7 +9230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>9.0909090909090898E-2</v>
       </c>
@@ -9246,7 +9251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>8.0808080808080801E-2</v>
       </c>
@@ -9267,7 +9272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>7.0707070707070704E-2</v>
       </c>
@@ -9288,7 +9293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>6.0606060606060601E-2</v>
       </c>
@@ -9309,7 +9314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>5.0505050505050497E-2</v>
       </c>
@@ -9330,7 +9335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>4.0404040404040401E-2</v>
       </c>
@@ -9351,7 +9356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>3.03030303030303E-2</v>
       </c>
@@ -9372,7 +9377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>2.02020202020202E-2</v>
       </c>
@@ -9393,7 +9398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>1.01010101010101E-2</v>
       </c>
@@ -9414,7 +9419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>0</v>
       </c>
@@ -9447,12 +9452,15 @@
   <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="61.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9460,7 +9468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9468,7 +9476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.99985000000000002</v>
       </c>
@@ -9476,7 +9484,7 @@
         <v>8.7837837837813151</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.99972000000000005</v>
       </c>
@@ -9484,7 +9492,7 @@
         <v>8.7837837837813151</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.99958999999999998</v>
       </c>
@@ -9492,7 +9500,7 @@
         <v>8.7837837837888166</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.99946000000000002</v>
       </c>
@@ -9500,7 +9508,7 @@
         <v>8.7837837837813151</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.99933000000000005</v>
       </c>
@@ -9508,7 +9516,7 @@
         <v>8.7837837837813151</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.99919000000000002</v>
       </c>
@@ -9516,7 +9524,7 @@
         <v>9.4594594594614172</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.99905999999999995</v>
       </c>
@@ -9524,7 +9532,7 @@
         <v>8.7837837837888166</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.99892999999999998</v>
       </c>
@@ -9532,7 +9540,7 @@
         <v>8.7837837837813151</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.99878999999999996</v>
       </c>
@@ -9540,7 +9548,7 @@
         <v>9.4594594594614172</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.99865999999999999</v>
       </c>
@@ -9548,7 +9556,7 @@
         <v>8.7837837837813151</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.99851999999999996</v>
       </c>
@@ -9556,7 +9564,7 @@
         <v>9.4594594594614172</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.99839</v>
       </c>
@@ -9564,7 +9572,7 @@
         <v>8.7837837837813151</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.99824999999999997</v>
       </c>
@@ -9572,7 +9580,7 @@
         <v>9.4594594594614172</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.99812000000000001</v>
       </c>
@@ -9580,7 +9588,7 @@
         <v>8.7837837837813151</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.99797999999999998</v>
       </c>
@@ -9588,7 +9596,7 @@
         <v>9.4594594594614172</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.99783999999999995</v>
       </c>
@@ -9596,7 +9604,7 @@
         <v>9.4594594594614172</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.99770000000000003</v>
       </c>
@@ -9604,7 +9612,7 @@
         <v>9.4594594594539174</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.99756</v>
       </c>
@@ -9612,7 +9620,7 @@
         <v>9.4594594594614172</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.99743000000000004</v>
       </c>
@@ -9620,7 +9628,7 @@
         <v>8.7837837837813151</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.99731000000000003</v>
       </c>
@@ -9628,7 +9636,7 @@
         <v>10.135135135135894</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.99589000000000005</v>
       </c>
@@ -9636,7 +9644,7 @@
         <v>9.5945945945944384</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.99443999999999999</v>
       </c>
@@ -9644,7 +9652,7 @@
         <v>9.7972972972977175</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.99297000000000002</v>
       </c>
@@ -9652,7 +9660,7 @@
         <v>9.9324324324322379</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.99148000000000003</v>
       </c>
@@ -9660,7 +9668,7 @@
         <v>10.067567567567508</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.99</v>
       </c>
@@ -9668,7 +9676,7 @@
         <v>10.000000000000249</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.98851999999999995</v>
       </c>
@@ -9676,7 +9684,7 @@
         <v>10.000000000000249</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.98706000000000005</v>
       </c>
@@ -9684,7 +9692,7 @@
         <v>9.864864864864229</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.98560999999999999</v>
       </c>
@@ -9692,7 +9700,7 @@
         <v>9.7972972972977175</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.98419000000000001</v>
       </c>
@@ -9700,7 +9708,7 @@
         <v>9.5945945945944384</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.98277999999999999</v>
       </c>
@@ -9708,7 +9716,7 @@
         <v>9.5270270270271791</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.98138999999999998</v>
       </c>
@@ -9716,7 +9724,7 @@
         <v>9.3918918918919072</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.98001000000000005</v>
       </c>
@@ -9724,7 +9732,7 @@
         <v>9.3243243243238982</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.97863</v>
       </c>
@@ -9732,7 +9740,7 @@
         <v>9.3243243243246461</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.97726999999999997</v>
       </c>
@@ -9740,7 +9748,7 @@
         <v>9.1891891891893778</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.97589999999999999</v>
       </c>
@@ -9748,7 +9756,7 @@
         <v>9.2567567567566371</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.97453999999999996</v>
       </c>
@@ -9756,7 +9764,7 @@
         <v>9.1891891891893778</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.97316999999999998</v>
       </c>
@@ -9764,7 +9772,7 @@
         <v>9.2567567567566371</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.97180999999999995</v>
       </c>
@@ -9772,7 +9780,7 @@
         <v>9.1891891891893778</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.97180999999999995</v>
       </c>
@@ -9780,7 +9788,7 @@
         <v>9.1891891891893778</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.94452000000000003</v>
       </c>
@@ -9788,7 +9796,7 @@
         <v>9.2195945945945699</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.9173</v>
       </c>
@@ -9796,7 +9804,7 @@
         <v>9.1959459459459527</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0.89015999999999995</v>
       </c>
@@ -9804,7 +9812,7 @@
         <v>9.1689189189189353</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0.86312</v>
       </c>
@@ -9812,7 +9820,7 @@
         <v>9.1351351351351191</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0.83620000000000005</v>
       </c>
@@ -9820,7 +9828,7 @@
         <v>9.0945945945945752</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0.80942999999999998</v>
       </c>
@@ -9828,7 +9836,7 @@
         <v>9.0439189189189424</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0.78283000000000003</v>
       </c>
@@ -9836,7 +9844,7 @@
         <v>8.9864864864864717</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0.75643000000000005</v>
       </c>
@@ -9844,7 +9852,7 @@
         <v>8.9189189189189122</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0.73026999999999997</v>
       </c>
@@ -9852,7 +9860,7 @@
         <v>8.8378378378378617</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0.70438000000000001</v>
       </c>
@@ -9860,7 +9868,7 @@
         <v>8.7466216216216104</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0.67881999999999998</v>
       </c>
@@ -9868,7 +9876,7 @@
         <v>8.635135135135144</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0.65363000000000004</v>
       </c>
@@ -9876,7 +9884,7 @@
         <v>8.510135135135112</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0.62883</v>
       </c>
@@ -9884,7 +9892,7 @@
         <v>8.3783783783783932</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0.60448999999999997</v>
       </c>
@@ -9892,7 +9900,7 @@
         <v>8.2229729729729808</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.58062999999999998</v>
       </c>
@@ -9900,7 +9908,7 @@
         <v>8.060810810810807</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0.55728999999999995</v>
       </c>
@@ -9908,7 +9916,7 @@
         <v>7.885135135135144</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0.53451000000000004</v>
       </c>
@@ -9916,7 +9924,7 @@
         <v>7.6959459459459163</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0.51229999999999998</v>
       </c>
@@ -9924,7 +9932,7 @@
         <v>7.5033783783784003</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0.49070000000000003</v>
       </c>
@@ -9932,7 +9940,7 @@
         <v>7.2972972972972814</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0.46970000000000001</v>
       </c>
@@ -9940,7 +9948,7 @@
         <v>7.094594594594601</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0.44934000000000002</v>
       </c>
@@ -9948,7 +9956,7 @@
         <v>6.8783783783783736</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0.42959999999999998</v>
       </c>
@@ -9956,7 +9964,7 @@
         <v>6.6689189189189308</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0.41049999999999998</v>
       </c>
@@ -9964,7 +9972,7 @@
         <v>6.4527027027027053</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0.39202999999999999</v>
       </c>
@@ -9972,7 +9980,7 @@
         <v>6.2398648648648605</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0.37418000000000001</v>
       </c>
@@ -9980,7 +9988,7 @@
         <v>6.0304054054053973</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0.35694999999999999</v>
       </c>
@@ -9988,7 +9996,7 @@
         <v>5.8209459459459536</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0.34033000000000002</v>
       </c>
@@ -9996,7 +10004,7 @@
         <v>5.6148648648648543</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0.32429999999999998</v>
       </c>
@@ -10004,7 +10012,7 @@
         <v>5.4155405405405563</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0.30886000000000002</v>
       </c>
@@ -10012,7 +10020,7 @@
         <v>5.2162162162162007</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0.29398999999999997</v>
       </c>
@@ -10020,7 +10028,7 @@
         <v>5.0236486486486651</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>0.27967999999999998</v>
       </c>
@@ -10028,7 +10036,7 @@
         <v>4.8344594594594552</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0.26591999999999999</v>
       </c>
@@ -10036,7 +10044,7 @@
         <v>4.6486486486486465</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0.25268000000000002</v>
       </c>
@@ -10044,7 +10052,7 @@
         <v>4.4729729729729639</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0.23995</v>
       </c>
@@ -10052,7 +10060,7 @@
         <v>4.3006756756756825</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0.22772999999999999</v>
       </c>
@@ -10060,7 +10068,7 @@
         <v>4.1283783783783816</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0.21598999999999999</v>
       </c>
@@ -10068,7 +10076,7 @@
         <v>3.9662162162162167</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0.20471</v>
       </c>
@@ -10076,7 +10084,7 @@
         <v>3.8108108108108056</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0.19389999999999999</v>
       </c>
@@ -10084,7 +10092,7 @@
         <v>3.6520270270270316</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0.18351999999999999</v>
       </c>
@@ -10092,7 +10100,7 @@
         <v>3.506756756756757</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0.17357</v>
       </c>
@@ -10100,7 +10108,7 @@
         <v>3.361486486486482</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>0.16403999999999999</v>
       </c>
@@ -10108,7 +10116,7 @@
         <v>3.2195945945945978</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>0.15490999999999999</v>
       </c>
@@ -10116,7 +10124,7 @@
         <v>3.0844594594594592</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>0.14616000000000001</v>
       </c>
@@ -10124,7 +10132,7 @@
         <v>2.9560810810810745</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>0.13780000000000001</v>
       </c>
@@ -10132,7 +10140,7 @@
         <v>2.8243243243243268</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>0.12978999999999999</v>
       </c>
@@ -10140,7 +10148,7 @@
         <v>2.7060810810810865</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>0.12214</v>
       </c>
@@ -10148,7 +10156,7 @@
         <v>2.5844594594594557</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>0.11482000000000001</v>
       </c>
@@ -10156,7 +10164,7 @@
         <v>2.4729729729729706</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>0.10784000000000001</v>
       </c>
@@ -10164,7 +10172,7 @@
         <v>2.3581081081081083</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>0.10118000000000001</v>
       </c>
@@ -10172,7 +10180,7 @@
         <v>2.2499999999999996</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>9.4818E-2</v>
       </c>
@@ -10180,7 +10188,7 @@
         <v>2.1493243243243261</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>8.8759000000000005E-2</v>
       </c>
@@ -10188,7 +10196,7 @@
         <v>2.0469594594594573</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>8.2987000000000005E-2</v>
       </c>
@@ -10196,7 +10204,7 @@
         <v>1.9499999999999997</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>7.7493999999999993E-2</v>
       </c>
@@ -10204,7 +10212,7 @@
         <v>1.855743243243247</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>7.2270000000000001E-2</v>
       </c>
@@ -10212,7 +10220,7 @@
         <v>1.7648648648648624</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>6.7305000000000004E-2</v>
       </c>
@@ -10220,7 +10228,7 @@
         <v>1.6773648648648638</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>6.2591999999999995E-2</v>
       </c>
@@ -10228,7 +10236,7 @@
         <v>1.5922297297297328</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>5.8120999999999999E-2</v>
       </c>
@@ -10236,7 +10244,7 @@
         <v>1.5104729729729713</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>5.3884000000000001E-2</v>
       </c>
@@ -10244,7 +10252,7 @@
         <v>1.4314189189189181</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>4.9874000000000002E-2</v>
       </c>
@@ -10252,7 +10260,7 @@
         <v>1.3547297297297296</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>4.6080999999999997E-2</v>
       </c>
@@ -10260,7 +10268,7 @@
         <v>1.2814189189189205</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>4.2499000000000002E-2</v>
       </c>
@@ -10268,7 +10276,7 @@
         <v>1.2101351351351335</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>3.9119000000000001E-2</v>
       </c>
@@ -10276,7 +10284,7 @@
         <v>1.1418918918918923</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>3.5935000000000002E-2</v>
       </c>
@@ -10284,7 +10292,7 @@
         <v>1.0756756756756756</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>3.2939999999999997E-2</v>
       </c>
@@ -10292,7 +10300,7 @@
         <v>1.0118243243243259</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>3.0124999999999999E-2</v>
       </c>
@@ -10300,7 +10308,7 @@
         <v>0.95101351351351282</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2.7484999999999999E-2</v>
       </c>
@@ -10308,7 +10316,7 @@
         <v>0.89189189189189189</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2.5012E-2</v>
       </c>
@@ -10316,7 +10324,7 @@
         <v>0.83547297297297285</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2.2700999999999999E-2</v>
       </c>
@@ -10324,7 +10332,7 @@
         <v>0.7807432432432434</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2.0545000000000001E-2</v>
       </c>
@@ -10332,7 +10340,7 @@
         <v>0.72837837837837771</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1.8537000000000001E-2</v>
       </c>
@@ -10340,7 +10348,7 @@
         <v>0.67837837837837811</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1.6670999999999998E-2</v>
       </c>
@@ -10348,7 +10356,7 @@
         <v>0.63040540540540646</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1.4940999999999999E-2</v>
       </c>
@@ -10356,7 +10364,7 @@
         <v>0.5844594594594591</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1.3342E-2</v>
       </c>
@@ -10364,7 +10372,7 @@
         <v>0.54020270270270254</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1.1867000000000001E-2</v>
       </c>
@@ -10372,7 +10380,7 @@
         <v>0.49831081081081036</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1.0511E-2</v>
       </c>
@@ -10380,7 +10388,7 @@
         <v>0.45810810810810854</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>9.2680000000000002E-3</v>
       </c>
@@ -10388,7 +10396,7 @@
         <v>0.41993243243243217</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>8.1326000000000002E-3</v>
       </c>
@@ -10396,7 +10404,7 @@
         <v>0.38358108108108108</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>7.0993000000000002E-3</v>
       </c>
@@ -10404,7 +10412,7 @@
         <v>0.34908783783783781</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>6.1627000000000001E-3</v>
       </c>
@@ -10412,7 +10420,7 @@
         <v>0.31641891891891893</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>5.3175000000000002E-3</v>
       </c>
@@ -10420,7 +10428,7 @@
         <v>0.28554054054054051</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>4.5585000000000001E-3</v>
       </c>
@@ -10428,7 +10436,7 @@
         <v>0.25641891891891899</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>3.8806000000000001E-3</v>
       </c>
@@ -10436,7 +10444,7 @@
         <v>0.22902027027027022</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>3.2785000000000002E-3</v>
       </c>
@@ -10444,7 +10452,7 @@
         <v>0.20341216216216212</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2.7472999999999998E-3</v>
       </c>
@@ -10452,7 +10460,7 @@
         <v>0.17945945945945957</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2.2818999999999999E-3</v>
       </c>
@@ -10460,7 +10468,7 @@
         <v>0.15722972972972971</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1.8775E-3</v>
       </c>
@@ -10468,7 +10476,7 @@
         <v>0.13662162162162156</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1.5291E-3</v>
       </c>
@@ -10476,7 +10484,7 @@
         <v>0.11770270270270271</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1.2319E-3</v>
       </c>
@@ -10494,13 +10502,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18F121B-5ACB-4A52-9CC6-1BD8A79F998F}">
   <dimension ref="B1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>11</v>
       </c>
@@ -10511,7 +10519,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>5</v>
       </c>
@@ -10519,7 +10527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>7</v>
       </c>
@@ -10531,7 +10539,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F4">
         <f>F3/(1000*3600)</f>
         <v>0.35555555555555557</v>
@@ -10540,7 +10548,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -10554,7 +10562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <f>0</f>
         <v>0</v>
@@ -10570,7 +10578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7">
         <f t="shared" ref="B7:B15" si="0">B6+0.1</f>
         <v>0.1</v>
@@ -10592,7 +10600,7 @@
         <v>0.81125358057607388</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <f t="shared" si="0"/>
         <v>0.2</v>
@@ -10610,7 +10618,7 @@
         <v>808.16858508230882</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
@@ -10628,7 +10636,7 @@
         <v>805.09532105878611</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10">
         <f t="shared" si="0"/>
         <v>0.4</v>
@@ -10646,7 +10654,7 @@
         <v>802.03374389356009</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -10664,7 +10672,7 @@
         <v>798.98380914445511</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12">
         <f t="shared" si="0"/>
         <v>0.6</v>
@@ -10682,7 +10690,7 @@
         <v>795.94547253824078</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13">
         <f t="shared" si="0"/>
         <v>0.7</v>
@@ -10700,7 +10708,7 @@
         <v>792.91868997008453</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14">
         <f t="shared" si="0"/>
         <v>0.79999999999999993</v>
@@ -10718,7 +10726,7 @@
         <v>789.9034175028421</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15">
         <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
@@ -10736,7 +10744,7 @@
         <v>786.89961136646525</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16">
         <f>B15+0.1</f>
         <v>0.99999999999999989</v>
@@ -10754,7 +10762,7 @@
         <v>783.90722795738577</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17">
         <f t="shared" ref="B17:B31" si="4">B16+1</f>
         <v>2</v>
@@ -10772,7 +10780,7 @@
         <v>767.69733455692563</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -10790,7 +10798,7 @@
         <v>738.99825514500378</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -10808,7 +10816,7 @@
         <v>711.37204276285604</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -10826,7 +10834,7 @@
         <v>684.77859007299458</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -10844,7 +10852,7 @@
         <v>659.17928908358908</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -10862,7 +10870,7 @@
         <v>634.53697509793017</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -10880,7 +10888,7 @@
         <v>610.81587275927757</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -10898,7 +10906,7 @@
         <v>587.98154411269127</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -10916,7 +10924,7 @@
         <v>566.00083860851908</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -10934,7 +10942,7 @@
         <v>544.84184497489468</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -10952,7 +10960,7 @@
         <v>524.47384488942112</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -10970,7 +10978,7 @@
         <v>504.86726838275331</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -10988,7 +10996,7 @@
         <v>485.99365090932406</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -11006,7 +11014,7 @@
         <v>467.82559202295931</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -11024,7 +11032,7 @@
         <v>450.33671559727156</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32">
         <f>B31+5</f>
         <v>21</v>
@@ -11042,7 +11050,7 @@
         <v>402.27933622876009</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" ref="B33:B37" si="5">B32+5</f>
         <v>26</v>
@@ -11060,7 +11068,7 @@
         <v>332.5022787819421</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34">
         <f t="shared" si="5"/>
         <v>31</v>
@@ -11078,7 +11086,7 @@
         <v>274.82834796245851</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" si="5"/>
         <v>36</v>
@@ -11096,7 +11104,7 @@
         <v>227.1582051120549</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36">
         <f t="shared" si="5"/>
         <v>41</v>
@@ -11114,7 +11122,7 @@
         <v>187.75665076871562</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37">
         <f t="shared" si="5"/>
         <v>46</v>
@@ -11132,7 +11140,7 @@
         <v>155.18946317829798</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38">
         <f>B37+5</f>
         <v>51</v>
@@ -11150,7 +11158,7 @@
         <v>128.27119243427171</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39">
         <f>B38+10</f>
         <v>61</v>
@@ -11168,7 +11176,7 @@
         <v>96.827026245834261</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40">
         <f t="shared" ref="B40:B50" si="6">B39+10</f>
         <v>71</v>
@@ -11186,7 +11194,7 @@
         <v>66.15008344879972</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41">
         <f t="shared" si="6"/>
         <v>81</v>
@@ -11204,7 +11212,7 @@
         <v>45.192274408731194</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42">
         <f t="shared" si="6"/>
         <v>91</v>
@@ -11222,7 +11230,7 @@
         <v>30.874362657680418</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43">
         <f t="shared" si="6"/>
         <v>101</v>
@@ -11240,7 +11248,7 @@
         <v>21.092681923833521</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44">
         <f t="shared" si="6"/>
         <v>111</v>
@@ -11258,7 +11266,7 @@
         <v>14.410053923148395</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45">
         <f t="shared" si="6"/>
         <v>121</v>
@@ -11276,7 +11284,7 @@
         <v>9.8446302285254852</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46">
         <f t="shared" si="6"/>
         <v>131</v>
@@ -11294,7 +11302,7 @@
         <v>6.7256337036123099</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47">
         <f>B46+10</f>
         <v>141</v>
@@ -11312,7 +11320,7 @@
         <v>4.5948042399903279</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48">
         <f t="shared" si="6"/>
         <v>151</v>
@@ -11330,7 +11338,7 @@
         <v>3.139068663893152</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49">
         <f>B48+10</f>
         <v>161</v>
@@ -11348,7 +11356,7 @@
         <v>2.1445423051704871</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50">
         <f t="shared" si="6"/>
         <v>171</v>
@@ -11377,13 +11385,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249FA7AD-7E5F-4F2A-B27E-0273FE8B5239}">
   <dimension ref="B1:G81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>12</v>
       </c>
@@ -11391,7 +11399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>13</v>
       </c>
@@ -11399,7 +11407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -11411,7 +11419,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F4">
         <f>F3/(3600*1000)</f>
         <v>0.75</v>
@@ -11420,7 +11428,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -11434,7 +11442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <f>0</f>
         <v>0</v>
@@ -11450,7 +11458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>B6+1</f>
         <v>1</v>
@@ -11472,7 +11480,7 @@
         <v>0.28126730554493107</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <f t="shared" ref="B8:B31" si="1">B7+1</f>
         <v>2</v>
@@ -11494,7 +11502,7 @@
         <v>0.27950927671896558</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -11516,7 +11524,7 @@
         <v>0.2777622362492449</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -11538,7 +11546,7 @@
         <v>0.27602611545430872</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -11560,7 +11568,7 @@
         <v>0.27430084608200284</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -11582,7 +11590,7 @@
         <v>0.27258636030675243</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -11604,7 +11612,7 @@
         <v>0.27088259072693299</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -11626,7 +11634,7 @@
         <v>0.26918947036220836</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -11648,7 +11656,7 @@
         <v>0.26750693265087722</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -11670,7 +11678,7 @@
         <v>0.26583491144729077</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -11692,7 +11700,7 @@
         <v>0.26417334101923928</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -11714,7 +11722,7 @@
         <v>0.26252215604533946</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -11736,7 +11744,7 @@
         <v>0.26088129161252138</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -11758,7 +11766,7 @@
         <v>0.25925068321344058</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -11780,7 +11788,7 @@
         <v>0.25763026674392003</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -11802,7 +11810,7 @@
         <v>0.25601997850050739</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -11824,7 +11832,7 @@
         <v>0.25441975517786652</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -11846,7 +11854,7 @@
         <v>0.25282953386639995</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -11868,7 +11876,7 @@
         <v>0.25124925204966564</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -11890,7 +11898,7 @@
         <v>0.24967884760202397</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -11912,7 +11920,7 @@
         <v>0.24811825878609473</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -11934,7 +11942,7 @@
         <v>0.24656742425042399</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -11956,7 +11964,7 @@
         <v>0.24502628302699611</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -11978,7 +11986,7 @@
         <v>0.2434947745288957</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -12000,7 +12008,7 @@
         <v>0.24197283854787421</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32">
         <f>B31+5</f>
         <v>30</v>
@@ -12022,7 +12030,7 @@
         <v>0.23747320475301992</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" ref="B33:B37" si="5">B32+5</f>
         <v>35</v>
@@ -12044,7 +12052,7 @@
         <v>0.23014390680279517</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34">
         <f t="shared" si="5"/>
         <v>40</v>
@@ -12066,7 +12074,7 @@
         <v>0.22304081798845435</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" si="5"/>
         <v>45</v>
@@ -12088,7 +12096,7 @@
         <v>0.21615695666271306</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36">
         <f t="shared" si="5"/>
         <v>50</v>
@@ -12110,7 +12118,7 @@
         <v>0.20948555665763546</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37">
         <f t="shared" si="5"/>
         <v>55</v>
@@ -12132,7 +12140,7 @@
         <v>0.20302006063415978</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38">
         <f>B37+5</f>
         <v>60</v>
@@ -12154,7 +12162,7 @@
         <v>0.19675411363686313</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39">
         <f>B38+10</f>
         <v>70</v>
@@ -12176,7 +12184,7 @@
         <v>0.18773898918996673</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40">
         <f t="shared" ref="B40:B50" si="6">B39+10</f>
         <v>80</v>
@@ -12198,7 +12206,7 @@
         <v>0.17632918947973816</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41">
         <f t="shared" si="6"/>
         <v>90</v>
@@ -12220,7 +12228,7 @@
         <v>0.16561281807648598</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42">
         <f t="shared" si="6"/>
         <v>100</v>
@@ -12242,7 +12250,7 @@
         <v>0.15554773201283781</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43">
         <f t="shared" si="6"/>
         <v>110</v>
@@ -12264,7 +12272,7 @@
         <v>0.146094349551878</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44">
         <f t="shared" si="6"/>
         <v>120</v>
@@ -12286,7 +12294,7 @@
         <v>0.13721549452887324</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45">
         <f t="shared" si="6"/>
         <v>130</v>
@@ -12308,7 +12316,7 @@
         <v>0.128876250153107</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46">
         <f t="shared" si="6"/>
         <v>140</v>
@@ -12330,7 +12338,7 @@
         <v>0.12104382169486941</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47">
         <f>B46+10</f>
         <v>150</v>
@@ -12352,7 +12360,7 @@
         <v>0.11368740751762212</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48">
         <f t="shared" si="6"/>
         <v>160</v>
@@ -12374,7 +12382,7 @@
         <v>0.10677807794815965</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49">
         <f>B48+10</f>
         <v>170</v>
@@ -12396,7 +12404,7 @@
         <v>0.10028866150840798</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50">
         <f t="shared" si="6"/>
         <v>180</v>
@@ -12418,7 +12426,7 @@
         <v>9.4193638061466634E-2</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51">
         <f>B50+30</f>
         <v>210</v>
@@ -12440,7 +12448,7 @@
         <v>8.3201272629354478E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52">
         <f t="shared" ref="B52:B81" si="7">B51+30</f>
         <v>240</v>
@@ -12462,7 +12470,7 @@
         <v>6.8934904326040505E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53">
         <f t="shared" si="7"/>
         <v>270</v>
@@ -12484,7 +12492,7 @@
         <v>5.7114763804270996E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54">
         <f t="shared" si="7"/>
         <v>300</v>
@@ -12506,7 +12514,7 @@
         <v>4.732140091163374E-2</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55">
         <f t="shared" si="7"/>
         <v>330</v>
@@ -12528,7 +12536,7 @@
         <v>3.9207287837406943E-2</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56">
         <f t="shared" si="7"/>
         <v>360</v>
@@ -12550,7 +12558,7 @@
         <v>3.2484486721680389E-2</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57">
         <f>B56+30</f>
         <v>390</v>
@@ -12572,7 +12580,7 @@
         <v>2.6914431876724768E-2</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58">
         <f t="shared" si="7"/>
         <v>420</v>
@@ -12594,7 +12602,7 @@
         <v>2.2299464031961987E-2</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59">
         <f t="shared" si="7"/>
         <v>450</v>
@@ -12616,7 +12624,7 @@
         <v>1.8475816186289132E-2</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60">
         <f t="shared" si="7"/>
         <v>480</v>
@@ -12638,7 +12646,7 @@
         <v>1.5307802163328844E-2</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61">
         <f t="shared" si="7"/>
         <v>510</v>
@@ -12660,7 +12668,7 @@
         <v>1.2683001644360986E-2</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62">
         <f t="shared" si="7"/>
         <v>540</v>
@@ -12682,7 +12690,7 @@
         <v>1.0508270814749192E-2</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63">
         <f t="shared" si="7"/>
         <v>570</v>
@@ -12704,7 +12712,7 @@
         <v>8.7064370574457504E-3</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64">
         <f t="shared" si="7"/>
         <v>600</v>
@@ -12726,7 +12734,7 @@
         <v>7.2135604012860573E-3</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65">
         <f t="shared" si="7"/>
         <v>630</v>
@@ -12748,7 +12756,7 @@
         <v>5.9766645436781984E-3</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66">
         <f t="shared" si="7"/>
         <v>660</v>
@@ -12770,7 +12778,7 @@
         <v>4.9518569306346814E-3</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67">
         <f t="shared" si="7"/>
         <v>690</v>
@@ -12792,7 +12800,7 @@
         <v>4.102771183203127E-3</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68">
         <f t="shared" si="7"/>
         <v>720</v>
@@ -12814,7 +12822,7 @@
         <v>3.3992765981557551E-3</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69">
         <f t="shared" si="7"/>
         <v>750</v>
@@ -12836,7 +12844,7 @@
         <v>2.8164089282084119E-3</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70">
         <f t="shared" si="7"/>
         <v>780</v>
@@ -12858,7 +12866,7 @@
         <v>2.3334844993771631E-3</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71">
         <f t="shared" si="7"/>
         <v>810</v>
@@ -12880,7 +12888,7 @@
         <v>1.9333662289933615E-3</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72">
         <f t="shared" si="7"/>
         <v>840</v>
@@ -12902,7 +12910,7 @@
         <v>1.6018554982515092E-3</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73">
         <f t="shared" si="7"/>
         <v>870</v>
@@ -12924,7 +12932,7 @@
         <v>1.327188299246653E-3</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74">
         <f t="shared" si="7"/>
         <v>900</v>
@@ -12946,7 +12954,7 @@
         <v>1.0996177767469576E-3</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75">
         <f t="shared" si="7"/>
         <v>930</v>
@@ -12968,7 +12976,7 @@
         <v>9.110683507564584E-4</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76">
         <f t="shared" si="7"/>
         <v>960</v>
@@ -12990,7 +12998,7 @@
         <v>7.5484914604205121E-4</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77">
         <f t="shared" si="7"/>
         <v>990</v>
@@ -13012,7 +13020,7 @@
         <v>6.2541655936934615E-4</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78">
         <f t="shared" si="7"/>
         <v>1020</v>
@@ -13034,7 +13042,7 @@
         <v>5.1817753889544084E-4</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79">
         <f t="shared" si="7"/>
         <v>1050</v>
@@ -13056,7 +13064,7 @@
         <v>4.2932659488020353E-4</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80">
         <f t="shared" si="7"/>
         <v>1080</v>
@@ -13078,7 +13086,7 @@
         <v>3.5571075786946192E-4</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81">
         <f t="shared" si="7"/>
         <v>1110</v>
@@ -13115,9 +13123,9 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>15</v>
       </c>
@@ -13128,7 +13136,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>16</v>
       </c>
@@ -13136,7 +13144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>17</v>
       </c>
@@ -13148,7 +13156,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F4">
         <f>F3/(3600*1000)</f>
         <v>0.18611111111111112</v>
@@ -13157,7 +13165,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -13171,7 +13179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <f>0</f>
         <v>0</v>
@@ -13187,7 +13195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>B6+0.1</f>
         <v>0.1</v>
@@ -13209,7 +13217,7 @@
         <v>1.6467382558392021</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <f t="shared" ref="B8:B15" si="1">B7+0.1</f>
         <v>0.2</v>
@@ -13227,7 +13235,7 @@
         <v>1630.4686148745141</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9">
         <f t="shared" si="1"/>
         <v>0.30000000000000004</v>
@@ -13245,7 +13253,7 @@
         <v>1614.2797449450507</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10">
         <f t="shared" si="1"/>
         <v>0.4</v>
@@ -13263,7 +13271,7 @@
         <v>1598.1716460509012</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -13281,7 +13289,7 @@
         <v>1582.1443181920008</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12">
         <f t="shared" si="1"/>
         <v>0.6</v>
@@ -13299,7 +13307,7 @@
         <v>1566.1977613684128</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13">
         <f t="shared" si="1"/>
         <v>0.7</v>
@@ -13317,7 +13325,7 @@
         <v>1550.3319755801122</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14">
         <f t="shared" si="1"/>
         <v>0.79999999999999993</v>
@@ -13335,7 +13343,7 @@
         <v>1534.5469608270366</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15">
         <f t="shared" si="1"/>
         <v>0.89999999999999991</v>
@@ -13353,7 +13361,7 @@
         <v>1518.8427171092733</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16">
         <f>B15+0.1</f>
         <v>0.99999999999999989</v>
@@ -13371,7 +13379,7 @@
         <v>1503.2192444268469</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17">
         <f>B16+0.5</f>
         <v>1.5</v>
@@ -13389,7 +13397,7 @@
         <v>1456.9142236263331</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18">
         <f t="shared" ref="B18:B23" si="4">B17+0.5</f>
         <v>2</v>
@@ -13407,7 +13415,7 @@
         <v>1381.2199912723343</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19">
         <f t="shared" si="4"/>
         <v>2.5</v>
@@ -13425,7 +13433,7 @@
         <v>1307.5450348003233</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -13443,7 +13451,7 @@
         <v>1235.8893542103353</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21">
         <f t="shared" si="4"/>
         <v>3.5</v>
@@ -13461,7 +13469,7 @@
         <v>1166.2529495023355</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -13479,7 +13487,7 @@
         <v>1098.6358206763337</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23">
         <f t="shared" si="4"/>
         <v>4.5</v>
@@ -13497,7 +13505,7 @@
         <v>1033.0379677323363</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24">
         <f>B23+0.5</f>
         <v>5</v>
@@ -13515,7 +13523,7 @@
         <v>969.45939067033339</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25">
         <f>B24+0.5</f>
         <v>5.5</v>
@@ -13533,7 +13541,7 @@
         <v>907.90008949033336</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" ref="B26:B27" si="5">B25+0.5</f>
         <v>6</v>
@@ -13551,7 +13559,7 @@
         <v>848.36006419232922</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" si="5"/>
         <v>6.5</v>
@@ -13569,7 +13577,7 @@
         <v>790.83931477633917</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28">
         <f>B27+0.5</f>
         <v>7</v>
@@ -13587,7 +13595,7 @@
         <v>735.33784124232875</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" ref="B29:B46" si="6">B28+0.5</f>
         <v>7.5</v>
@@ -13605,7 +13613,7 @@
         <v>681.85564359033378</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30">
         <f t="shared" si="6"/>
         <v>8</v>
@@ -13623,7 +13631,7 @@
         <v>630.3927218203338</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31">
         <f t="shared" si="6"/>
         <v>8.5</v>
@@ -13641,7 +13649,7 @@
         <v>580.94907593233438</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32">
         <f t="shared" si="6"/>
         <v>9</v>
@@ -13659,7 +13667,7 @@
         <v>533.52470592633256</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" si="6"/>
         <v>9.5</v>
@@ -13677,7 +13685,7 @@
         <v>488.11961180233322</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34">
         <f t="shared" si="6"/>
         <v>10</v>
@@ -13695,7 +13703,7 @@
         <v>444.73379356033257</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" si="6"/>
         <v>10.5</v>
@@ -13713,7 +13721,7 @@
         <v>403.36725120033378</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36">
         <f t="shared" si="6"/>
         <v>11</v>
@@ -13731,7 +13739,7 @@
         <v>364.01998472233254</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37">
         <f t="shared" si="6"/>
         <v>11.5</v>
@@ -13749,7 +13757,7 @@
         <v>326.69199412633407</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38">
         <f t="shared" si="6"/>
         <v>12</v>
@@ -13767,7 +13775,7 @@
         <v>291.38327941233342</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39">
         <f t="shared" si="6"/>
         <v>12.5</v>
@@ -13785,7 +13793,7 @@
         <v>258.09384058033362</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -13803,7 +13811,7 @@
         <v>226.82367763033341</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41">
         <f t="shared" si="6"/>
         <v>13.5</v>
@@ -13821,7 +13829,7 @@
         <v>197.57279056233347</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42">
         <f t="shared" si="6"/>
         <v>14</v>
@@ -13839,7 +13847,7 @@
         <v>170.34117937633229</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43">
         <f t="shared" si="6"/>
         <v>14.5</v>
@@ -13857,7 +13865,7 @@
         <v>145.12884407233355</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -13875,7 +13883,7 @@
         <v>121.93578465033353</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45">
         <f t="shared" si="6"/>
         <v>15.5</v>
@@ -13893,7 +13901,7 @@
         <v>100.76200111033339</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46">
         <f t="shared" si="6"/>
         <v>16</v>
@@ -13926,9 +13934,9 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>18</v>
       </c>
@@ -13936,7 +13944,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>20</v>
       </c>
@@ -13944,7 +13952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -13956,7 +13964,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F4">
         <f>F3/(3600*1000)</f>
         <v>0.19305555555555556</v>
@@ -13965,7 +13973,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -13979,7 +13987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <f>0</f>
         <v>0</v>
@@ -13995,7 +14003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>B6+1</f>
         <v>1</v>
@@ -14017,7 +14025,7 @@
         <v>8.4767892154311394E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <f t="shared" ref="B8:B31" si="1">B7+1</f>
         <v>2</v>
@@ -14039,7 +14047,7 @@
         <v>8.4147552970978146E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -14061,7 +14069,7 @@
         <v>8.3531753486491431E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -14083,7 +14091,7 @@
         <v>8.2920460478923361E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -14105,7 +14113,7 @@
         <v>8.2313640969462074E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -14127,7 +14135,7 @@
         <v>8.1711262220638264E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -14149,7 +14157,7 @@
         <v>8.1113291734563456E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -14171,7 +14179,7 @@
         <v>8.0519697251164257E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -14193,7 +14201,7 @@
         <v>7.9930446746455247E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -14215,7 +14223,7 @@
         <v>7.934550843080157E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -14237,7 +14245,7 @@
         <v>7.8764850747211179E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -14259,7 +14267,7 @@
         <v>7.8188442369625688E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -14281,7 +14289,7 @@
         <v>7.7616252201238231E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -14303,7 +14311,7 @@
         <v>7.7048249372805008E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -14325,7 +14333,7 @@
         <v>7.6484403240990123E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -14347,7 +14355,7 @@
         <v>7.5924683386710601E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -14369,7 +14377,7 @@
         <v>7.5369059613484987E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -14391,7 +14399,7 @@
         <v>7.4817501945824733E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -14413,7 +14421,7 @@
         <v>7.4269980627590521E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -14435,7 +14443,7 @@
         <v>7.3726466120413156E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -14457,7 +14465,7 @@
         <v>7.3186929102080814E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -14479,7 +14487,7 @@
         <v>7.2651340464967656E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -14501,7 +14509,7 @@
         <v>7.2119671314458386E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -14523,7 +14531,7 @@
         <v>7.1591892967390894E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -14545,7 +14553,7 @@
         <v>7.106797695051309E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32">
         <f>B31+5</f>
         <v>30</v>
@@ -14567,7 +14575,7 @@
         <v>6.9522871810997686E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" ref="B33:B37" si="5">B32+5</f>
         <v>35</v>
@@ -14589,7 +14597,7 @@
         <v>6.7015959280183626E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34">
         <f t="shared" si="5"/>
         <v>40</v>
@@ -14611,7 +14619,7 @@
         <v>6.4599443050232991E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" si="5"/>
         <v>45</v>
@@ -14633,7 +14641,7 @@
         <v>6.2270063537451438E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36">
         <f t="shared" si="5"/>
         <v>50</v>
@@ -14655,7 +14663,7 @@
         <v>6.0024678694877355E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37">
         <f t="shared" si="5"/>
         <v>55</v>
@@ -14677,7 +14685,7 @@
         <v>5.7860259774045374E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38">
         <f>B37+5</f>
         <v>60</v>
@@ -14699,7 +14707,7 @@
         <v>5.5773887239578386E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39">
         <f>B38+10</f>
         <v>70</v>
@@ -14721,7 +14729,7 @@
         <v>5.2793436299096962E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40">
         <f t="shared" ref="B40:B50" si="6">B39+10</f>
         <v>80</v>
@@ -14743,7 +14751,7 @@
         <v>4.9054742601845717E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41">
         <f t="shared" si="6"/>
         <v>90</v>
@@ -14765,7 +14773,7 @@
         <v>4.5580813457571791E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42">
         <f t="shared" si="6"/>
         <v>100</v>
@@ -14787,7 +14795,7 @@
         <v>4.2352898930016696E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43">
         <f t="shared" si="6"/>
         <v>110</v>
@@ -14809,7 +14817,7 @@
         <v>3.9353576904587483E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44">
         <f t="shared" si="6"/>
         <v>120</v>
@@ -14831,7 +14839,7 @@
         <v>3.6566659055483841E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45">
         <f t="shared" si="6"/>
         <v>130</v>
@@ -14853,7 +14861,7 @@
         <v>3.3977103471987791E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46">
         <f t="shared" si="6"/>
         <v>140</v>
@@ -14875,7 +14883,7 @@
         <v>3.157093347233296E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47">
         <f>B46+10</f>
         <v>150</v>
@@ -14897,7 +14905,7 @@
         <v>2.9335162166963892E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48">
         <f t="shared" si="6"/>
         <v>160</v>
@@ -14919,7 +14927,7 @@
         <v>2.7257722364028642E-2</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49">
         <f>B48+10</f>
         <v>170</v>
@@ -14941,7 +14949,7 @@
         <v>2.5327401438782125E-2</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50">
         <f t="shared" si="6"/>
         <v>180</v>
@@ -14963,7 +14971,7 @@
         <v>2.3533780815368624E-2</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51">
         <f>B50+30</f>
         <v>210</v>
@@ -14985,7 +14993,7 @@
         <v>2.0355158393130783E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52">
         <f t="shared" ref="B52:B75" si="7">B51+30</f>
         <v>240</v>
@@ -15007,7 +15015,7 @@
         <v>1.6329680857381415E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53">
         <f t="shared" si="7"/>
         <v>270</v>
@@ -15029,7 +15037,7 @@
         <v>1.3100289948808179E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54">
         <f t="shared" si="7"/>
         <v>300</v>
@@ -15051,7 +15059,7 @@
         <v>1.0509549956407698E-2</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55">
         <f t="shared" si="7"/>
         <v>330</v>
@@ -15073,7 +15081,7 @@
         <v>8.4311599756826221E-3</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56">
         <f t="shared" si="7"/>
         <v>360</v>
@@ -15095,7 +15103,7 @@
         <v>6.763796625964223E-3</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57">
         <f>B56+30</f>
         <v>390</v>
@@ -15117,7 +15125,7 @@
         <v>5.4261744444839338E-3</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58">
         <f t="shared" si="7"/>
         <v>420</v>
@@ -15139,7 +15147,7 @@
         <v>4.3530831469630856E-3</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59">
         <f t="shared" si="7"/>
         <v>450</v>
@@ -15161,7 +15169,7 @@
         <v>3.4922085676101357E-3</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60">
         <f t="shared" si="7"/>
         <v>480</v>
@@ -15183,7 +15191,7 @@
         <v>2.8015822964920448E-3</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61">
         <f t="shared" si="7"/>
         <v>510</v>
@@ -15205,7 +15213,7 @@
         <v>2.247535681807506E-3</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62">
         <f t="shared" si="7"/>
         <v>540</v>
@@ -15227,7 +15235,7 @@
         <v>1.8030584528332288E-3</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63">
         <f t="shared" si="7"/>
         <v>570</v>
@@ -15249,7 +15257,7 @@
         <v>1.4464819449357277E-3</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64">
         <f t="shared" si="7"/>
         <v>600</v>
@@ -15271,7 +15279,7 @@
         <v>1.1604227326836207E-3</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65">
         <f t="shared" si="7"/>
         <v>630</v>
@@ -15293,7 +15301,7 @@
         <v>9.3093517222488347E-4</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66">
         <f t="shared" si="7"/>
         <v>660</v>
@@ -15315,7 +15323,7 @@
         <v>7.4683153860762486E-4</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67">
         <f t="shared" si="7"/>
         <v>690</v>
@@ -15337,7 +15345,7 @@
         <v>5.9913661412751772E-4</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68">
         <f t="shared" si="7"/>
         <v>720</v>
@@ -15359,7 +15367,7 @@
         <v>4.8065013839322944E-4</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69">
         <f t="shared" si="7"/>
         <v>750</v>
@@ -15381,7 +15389,7 @@
         <v>3.855957891571304E-4</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70">
         <f t="shared" si="7"/>
         <v>780</v>
@@ -15403,7 +15411,7 @@
         <v>3.0933958141101997E-4</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71">
         <f t="shared" si="7"/>
         <v>810</v>
@@ -15425,7 +15433,7 @@
         <v>2.4816395644961474E-4</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72">
         <f t="shared" si="7"/>
         <v>840</v>
@@ -15447,7 +15455,7 @@
         <v>1.9908654754044558E-4</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73">
         <f t="shared" si="7"/>
         <v>870</v>
@@ -15469,7 +15477,7 @@
         <v>1.5971478686358306E-4</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74">
         <f t="shared" si="7"/>
         <v>900</v>
@@ -15491,7 +15499,7 @@
         <v>1.2812926567877547E-4</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75">
         <f t="shared" si="7"/>
         <v>930</v>
